--- a/test_senaryoları.xlsx
+++ b/test_senaryoları.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ersin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C3F4F-D509-4C9D-8964-70AA77E432F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122866E3-3AF6-4722-8AD8-B4E3D1AAAEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{21F89864-9DF5-46CC-AD43-FC4DEE93CEA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="220">
   <si>
     <t>Proje Adı</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Tarih seçilmemesi</t>
   </si>
   <si>
-    <t>Tura kaç kişi katılacağı belirtilmemesi</t>
-  </si>
-  <si>
     <t>Tura geliş tarihinin belirtilmemesi</t>
   </si>
   <si>
@@ -560,6 +557,173 @@
   </si>
   <si>
     <t>Gitmek istenen tura tıklanılır</t>
+  </si>
+  <si>
+    <t>Menü-&gt; Hakkımızda</t>
+  </si>
+  <si>
+    <t>Menü-&gt; Değerlendirmeler</t>
+  </si>
+  <si>
+    <t>Hakkımızda sekmesine tıklanılır</t>
+  </si>
+  <si>
+    <t>Değerlendirmeler sekmesine tıklanılır</t>
+  </si>
+  <si>
+    <t>Hakkımızda sekmesi açılır</t>
+  </si>
+  <si>
+    <t>Değerlendirmeler sekmesi açılır</t>
+  </si>
+  <si>
+    <t>Hakkımızda Ekranı</t>
+  </si>
+  <si>
+    <t>Hakkımızda sekmesi ekrana gelir</t>
+  </si>
+  <si>
+    <t>Fotoğraf</t>
+  </si>
+  <si>
+    <t>Fotoğrafa tıklanır</t>
+  </si>
+  <si>
+    <t>Değerlendirmeler Ekranı</t>
+  </si>
+  <si>
+    <t>Yoruma Tıklanır</t>
+  </si>
+  <si>
+    <t>Yorumlar</t>
+  </si>
+  <si>
+    <t>Seçilen yorum  daha detaylı bir şekilde ekrana gelir</t>
+  </si>
+  <si>
+    <t>Beğendim, Beğenmedim butonu</t>
+  </si>
+  <si>
+    <t>İkisinden birisine tıklanılır</t>
+  </si>
+  <si>
+    <t>Seçilen buton Beğendim butonu ise "Yeşil" rengine döner.
+Beğenmedim butonu ise "Kırmızı" rengine döner.</t>
+  </si>
+  <si>
+    <t>Ad Soyad, E-mail ve yorum yazılır ve verilecek yıldız seçilir 
+(1-5) sonrasında gönder butonuna tıklanır</t>
+  </si>
+  <si>
+    <t>Yıldızın seçilmemesi</t>
+  </si>
+  <si>
+    <t>Admin Panel 
+Yeni Tur Ekle Ekranı</t>
+  </si>
+  <si>
+    <t>Tur ekleme ekranı gelir</t>
+  </si>
+  <si>
+    <t>Menü-&gt; Turlar -&gt; Daha Fazlası…</t>
+  </si>
+  <si>
+    <t>İstenilen Tura tıklanılır</t>
+  </si>
+  <si>
+    <t>Seçilen tur daha ayrıntılı bir şekilde ekrana gelir</t>
+  </si>
+  <si>
+    <t>Turlar 
+Daha Fazlası… Ekranı</t>
+  </si>
+  <si>
+    <t>Image Navigator</t>
+  </si>
+  <si>
+    <t>Sağ taraftaki butona basılır</t>
+  </si>
+  <si>
+    <t>Bir sonraki fotoğrafa geçmesi beklenir</t>
+  </si>
+  <si>
+    <t>Sol taraftaki butona basılır</t>
+  </si>
+  <si>
+    <t>Bir önceki fotoğrafa geçmesi beklenir</t>
+  </si>
+  <si>
+    <t>Hemen Rezevasyon Yaptırın Butonu</t>
+  </si>
+  <si>
+    <t>Rezervasyon sekmesinin açılması beklenir</t>
+  </si>
+  <si>
+    <t>Seçilen turun bilgilerinin daha ayrıntılı ekrana 
+gelmesi beklenir</t>
+  </si>
+  <si>
+    <t>Tura kaç yetişkin katılacağı belirtilmemesi</t>
+  </si>
+  <si>
+    <t>Tura kaç çocuk katılacağı belirtilmemesi</t>
+  </si>
+  <si>
+    <t>Sonraki Sayfa Butonu</t>
+  </si>
+  <si>
+    <t>Bir sonraki sayfaya geçmesi beklenir</t>
+  </si>
+  <si>
+    <t>Bir önceki sayfaya geçmesi beklenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bir sonraki sayfaya geçmesi beklenir </t>
+  </si>
+  <si>
+    <t>Eğer kullanıcı önceden bizimle iletişime geçin formu 
+doldurmuş ise ekrana gelir</t>
+  </si>
+  <si>
+    <t>Eğer kullanıcı önceden herhangi bir değerlendirme
+yaptıysa ekrana gelir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menü-&gt; Admin "Admin User Name"  </t>
+  </si>
+  <si>
+    <t>Admin kullanıcı sekmesi ekrana gelir</t>
+  </si>
+  <si>
+    <t>Admin şifre, email, fotoğraf, ad, soyad gibi
+bilgilerine burada değişiklik yaparak güncelleyebilir</t>
+  </si>
+  <si>
+    <t>Onayladığı ve ya onaylamadığı rezervasyonları görebilir</t>
+  </si>
+  <si>
+    <t>Yaptığı kullanıcı değişikliklerini görebilir</t>
+  </si>
+  <si>
+    <t>Eklediği ve ya sildiği turlar var ise bunları görebilir</t>
+  </si>
+  <si>
+    <t>Admin Kullanıcı Ekranı</t>
+  </si>
+  <si>
+    <t>Admin kullanıcı hesabından çıkış yapılır</t>
+  </si>
+  <si>
+    <t>Çarpıya basılarak fotoğraf küçülür</t>
+  </si>
+  <si>
+    <t>Çarpı butonu</t>
+  </si>
+  <si>
+    <t>Çarpıya basılarak yorum küçülür</t>
+  </si>
+  <si>
+    <t>Çarpıya basılarak rezervasyon bilgileri kapanır</t>
   </si>
 </sst>
 </file>
@@ -630,7 +794,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +858,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,9 +1076,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,18 +1169,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1016,11 +1189,231 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1031,12 +1424,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1061,128 +1448,87 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1193,6 +1539,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFFF6699"/>
+      <color rgb="FF009900"/>
+      <color rgb="FF3333CC"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FF00CC66"/>
       <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
@@ -1504,17 +1856,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E873CFB-3A35-48D3-B473-822AB0BD7015}">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="58.140625" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
@@ -1524,100 +1876,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="82"/>
+      <c r="C1" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="44">
         <v>44923</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="67" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="163">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="86" t="s">
+      <c r="B11" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="99" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="86" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="99" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="3"/>
@@ -1630,17 +1982,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+      <c r="A12" s="163">
         <f t="shared" ref="A12:A75" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="88"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1651,17 +2003,17 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="163">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="109" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="3"/>
@@ -1674,17 +2026,17 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="163">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="87"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="87"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1695,17 +2047,17 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="163">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="87"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1716,17 +2068,17 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
+      <c r="A16" s="163">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="87"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1737,17 +2089,17 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="163">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="88"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1758,12 +2110,12 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
+      <c r="A18" s="163">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="88"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1781,13 +2133,13 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="163">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="86" t="s">
-        <v>150</v>
+      <c r="B19" s="105"/>
+      <c r="C19" s="99" t="s">
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -1806,18 +2158,18 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="163">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="88"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1829,13 +2181,13 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+      <c r="A21" s="163">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="86" t="s">
-        <v>151</v>
+      <c r="B21" s="105"/>
+      <c r="C21" s="99" t="s">
+        <v>150</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
@@ -1854,18 +2206,18 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
+      <c r="A22" s="163">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1877,20 +2229,20 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
+      <c r="A23" s="163">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="105"/>
+      <c r="C23" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>125</v>
-      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="102" t="s">
-        <v>127</v>
+      <c r="F23" s="49" t="s">
+        <v>126</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1902,18 +2254,18 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="A24" s="163">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="38" t="s">
-        <v>126</v>
+      <c r="B24" s="105"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="37" t="s">
+        <v>125</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="102" t="s">
-        <v>128</v>
+      <c r="F24" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1925,20 +2277,20 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="163">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="86" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>107</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1950,17 +2302,17 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
+      <c r="A26" s="163">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="99" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="3"/>
@@ -1973,17 +2325,17 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="163">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="87"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="87"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1994,17 +2346,17 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+      <c r="A28" s="163">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="36" t="s">
-        <v>110</v>
+      <c r="B28" s="105"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="87"/>
+      <c r="F28" s="109"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2015,17 +2367,17 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
+      <c r="A29" s="163">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="87"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="87"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2036,17 +2388,17 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43">
+      <c r="A30" s="163">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="87"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="87"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2057,17 +2409,17 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43">
+      <c r="A31" s="163">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="87"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2078,17 +2430,17 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43">
+      <c r="A32" s="163">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="87"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2099,17 +2451,17 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
+      <c r="A33" s="163">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="88"/>
+      <c r="F33" s="100"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2119,21 +2471,21 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
+    <row r="34" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="163">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="73"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="37" t="s">
-        <v>116</v>
+      <c r="F34" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2144,21 +2496,21 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43">
+    <row r="35" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="163">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="86" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="36" t="s">
         <v>122</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="37" t="s">
-        <v>123</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2169,19 +2521,19 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
+    <row r="36" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="163">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="36" t="s">
         <v>132</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="37" t="s">
-        <v>133</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2192,21 +2544,21 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43">
+    <row r="37" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="163">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="31" t="s">
-        <v>134</v>
+      <c r="B37" s="105"/>
+      <c r="C37" s="99" t="s">
+        <v>192</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="37" t="s">
-        <v>135</v>
+      <c r="F37" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2217,21 +2569,19 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43">
+    <row r="38" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="163">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B38" s="105"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="3" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="37" t="s">
-        <v>138</v>
+      <c r="F38" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2242,321 +2592,323 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
+    <row r="39" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="163">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43">
+    <row r="40" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="163">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43">
+    <row r="41" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="163">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="B41" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43">
+    <row r="42" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="163">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43">
+    <row r="43" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="163">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43">
+    <row r="44" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="163">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="43">
+    <row r="45" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="163">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="7"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43">
+    <row r="46" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="163">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43">
+    <row r="47" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="163">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="43">
+    <row r="48" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="163">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="70"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="43">
+    <row r="49" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="163">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="102"/>
+      <c r="C49" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="43">
+    <row r="50" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="163">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="43">
+    <row r="51" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="163">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2564,676 +2916,694 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="43">
+      <c r="A52" s="163">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="78"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="43">
+    <row r="53" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="163">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43">
+    <row r="54" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="163">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B54" s="78"/>
-      <c r="C54" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="43">
+    <row r="55" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="163">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43">
+    <row r="56" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="163">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="43">
+    <row r="57" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="163">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="B57" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="43">
+    <row r="58" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="163">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="43">
+    <row r="59" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="163">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="C59" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="13"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="43">
+    <row r="60" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="163">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="43">
+    <row r="61" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="163">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="43">
+    <row r="62" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="163">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="43">
+    <row r="63" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="163">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="98"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="43">
+    <row r="64" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="163">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="98"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="43">
+    <row r="65" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="163">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="98"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="43">
+    <row r="66" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="163">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="98"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="43">
+    <row r="67" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="163">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="98"/>
-      <c r="C67" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="43">
+    <row r="68" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="163">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="B68" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="139"/>
+      <c r="D68" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="139"/>
+      <c r="F68" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="139"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43">
+    <row r="69" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="163">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="98"/>
-      <c r="C69" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="139"/>
+      <c r="F69" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43">
+    <row r="70" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="163">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="138" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="139"/>
+      <c r="F70" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="139"/>
+      <c r="H70" s="139"/>
+      <c r="I70" s="139"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="43">
+    <row r="71" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="163">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="143" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="138" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="139"/>
+      <c r="F71" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="139"/>
+      <c r="H71" s="139"/>
+      <c r="I71" s="139"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="43">
+    <row r="72" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="163">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B72" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="139"/>
+      <c r="F72" s="140" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="139"/>
+      <c r="H72" s="139"/>
+      <c r="I72" s="139"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="43">
+    <row r="73" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="163">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B73" s="100"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="143" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="139"/>
+      <c r="F73" s="139" t="s">
+        <v>194</v>
+      </c>
+      <c r="G73" s="139"/>
+      <c r="H73" s="139"/>
+      <c r="I73" s="139"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="43">
+    <row r="74" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="163">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B74" s="100"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="144"/>
+      <c r="D74" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" s="139"/>
+      <c r="H74" s="139"/>
+      <c r="I74" s="139"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="43">
+    <row r="75" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="163">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139" t="s">
+        <v>198</v>
+      </c>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="139"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43">
-        <f t="shared" ref="A76:A113" si="1">ROW(A66)</f>
+    <row r="76" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="163">
+        <f t="shared" ref="A76:A139" si="1">ROW(A66)</f>
         <v>66</v>
       </c>
-      <c r="B76" s="101"/>
-      <c r="C76" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="139"/>
+      <c r="F76" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="139"/>
+      <c r="H76" s="139"/>
+      <c r="I76" s="139"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="43">
+    <row r="77" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="163">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B77" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="104"/>
-      <c r="F77" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="139"/>
+      <c r="F77" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="139"/>
+      <c r="H77" s="139"/>
+      <c r="I77" s="139"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="43">
+    <row r="78" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="163">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B78" s="105"/>
-      <c r="C78" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="104"/>
-      <c r="F78" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="104"/>
+      <c r="B78" s="141"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="139"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="139"/>
+      <c r="H78" s="139"/>
+      <c r="I78" s="139"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="43">
+    <row r="79" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="163">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B79" s="105"/>
-      <c r="C79" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="104"/>
-      <c r="F79" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="104"/>
+      <c r="B79" s="142"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="138" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="139"/>
+      <c r="F79" s="144"/>
+      <c r="G79" s="139"/>
+      <c r="H79" s="139"/>
+      <c r="I79" s="139"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="43">
+    <row r="80" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="163">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B80" s="105"/>
-      <c r="C80" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="104"/>
-      <c r="F80" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="G80" s="104"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="104"/>
+      <c r="B80" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3241,97 +3611,89 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43">
+      <c r="A81" s="163">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B81" s="107"/>
-      <c r="C81" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" s="104"/>
-      <c r="F81" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="12"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="43">
+    <row r="82" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="163">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B82" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
+      <c r="B82" s="108"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="43">
+    <row r="83" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="163">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43">
+    <row r="84" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="163">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B84" s="57"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -3339,402 +3701,390 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="43">
+      <c r="A85" s="163">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
+      <c r="B85" s="108"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="43">
+    <row r="86" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="163">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
+      <c r="B86" s="108"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="43">
+    <row r="87" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="163">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B87" s="57"/>
-      <c r="C87" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
+      <c r="B87" s="108"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43">
+    <row r="88" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="163">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
+      <c r="B88" s="108"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="43">
+    <row r="89" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="163">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
+      <c r="B89" s="108"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="43">
+    <row r="90" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="163">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
+      <c r="B90" s="108"/>
+      <c r="C90" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="43">
+    <row r="91" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="163">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="43">
+    <row r="92" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="163">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B92" s="57"/>
-      <c r="C92" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
+      <c r="B92" s="108"/>
+      <c r="C92" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="43">
+    <row r="93" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="163">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="43">
+    <row r="94" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="163">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B94" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="94"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="43">
+    <row r="95" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="163">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B95" s="67"/>
-      <c r="C95" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" s="35"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
+      <c r="B95" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="56"/>
+      <c r="D95" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="58"/>
+      <c r="F95" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="43">
+    <row r="96" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="163">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B96" s="67"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" s="34"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="58"/>
+      <c r="F96" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="43">
+    <row r="97" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="163">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B97" s="67"/>
-      <c r="C97" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="58"/>
+      <c r="F97" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="43">
+    <row r="98" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="163">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" s="58"/>
+      <c r="F98" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="43">
+    <row r="99" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="163">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="58"/>
+      <c r="F99" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43">
+    <row r="100" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="163">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B100" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" s="58"/>
+      <c r="F100" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="43">
+    <row r="101" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="163">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="58"/>
+      <c r="F101" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -3742,1302 +4092,2813 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="43">
+      <c r="A102" s="163">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B102" s="62"/>
-      <c r="C102" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E102" s="28"/>
-      <c r="F102" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" s="58"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="43">
+    <row r="103" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="163">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B103" s="62"/>
-      <c r="C103" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" s="28"/>
-      <c r="F103" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="58"/>
+      <c r="F103" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="43">
+    <row r="104" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="163">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B104" s="63"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" s="53"/>
-      <c r="F104" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E104" s="58"/>
+      <c r="F104" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="43">
+    <row r="105" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="163">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="B105" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="54"/>
+      <c r="D105" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="43">
+    <row r="106" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="163">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="43">
+    <row r="107" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="163">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="43">
+    <row r="108" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="163">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="43">
+    <row r="109" spans="1:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="163">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="43">
+    <row r="110" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="163">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="43">
+    <row r="111" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="163">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="43">
+    <row r="112" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="163">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="43">
+    <row r="113" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="163">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="43">
-        <f t="shared" ref="A105:A114" si="2">ROW(A104)</f>
+    <row r="114" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="163">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
+    <row r="115" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="163">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B115" s="79"/>
+      <c r="C115" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+    <row r="116" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="163">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B116" s="80"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
+    <row r="117" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="163">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B117" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+    <row r="118" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="163">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B118" s="97"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" s="18"/>
+      <c r="F118" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+    <row r="119" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="163">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B119" s="97"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+    <row r="120" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="163">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B120" s="97"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
+    <row r="121" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="163">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B121" s="98"/>
+      <c r="C121" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E121" s="18"/>
+      <c r="F121" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
+    <row r="122" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="163">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B122" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="51"/>
+      <c r="F122" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
+    <row r="123" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="163">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B123" s="92"/>
+      <c r="C123" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D123" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="51"/>
+      <c r="F123" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
+    <row r="124" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="163">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B124" s="92"/>
+      <c r="C124" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E124" s="51"/>
+      <c r="F124" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="G124" s="51"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="51"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+    <row r="125" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="163">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B125" s="92"/>
+      <c r="C125" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="51"/>
+      <c r="F125" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+    <row r="126" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="163">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B126" s="92"/>
+      <c r="C126" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E126" s="51"/>
+      <c r="F126" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
+      <c r="I126" s="51"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+    <row r="127" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="163">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B127" s="92"/>
+      <c r="C127" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" s="51"/>
+      <c r="F127" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="51"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+    <row r="128" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="163">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B128" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="152"/>
+      <c r="D128" s="160" t="s">
+        <v>47</v>
+      </c>
+      <c r="E128" s="151"/>
+      <c r="F128" s="161" t="s">
+        <v>209</v>
+      </c>
+      <c r="G128" s="151"/>
+      <c r="H128" s="151"/>
+      <c r="I128" s="151"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+    <row r="129" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="163">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B129" s="157"/>
+      <c r="C129" s="149"/>
+      <c r="D129" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="151"/>
+      <c r="F129" s="152" t="s">
+        <v>210</v>
+      </c>
+      <c r="G129" s="151"/>
+      <c r="H129" s="151"/>
+      <c r="I129" s="151"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
+    <row r="130" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="163">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B130" s="157"/>
+      <c r="C130" s="153"/>
+      <c r="D130" s="154"/>
+      <c r="E130" s="151"/>
+      <c r="F130" s="152" t="s">
+        <v>211</v>
+      </c>
+      <c r="G130" s="151"/>
+      <c r="H130" s="151"/>
+      <c r="I130" s="151"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+    <row r="131" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="163">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B131" s="157"/>
+      <c r="C131" s="153"/>
+      <c r="D131" s="154"/>
+      <c r="E131" s="151"/>
+      <c r="F131" s="152" t="s">
+        <v>212</v>
+      </c>
+      <c r="G131" s="151"/>
+      <c r="H131" s="151"/>
+      <c r="I131" s="151"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+    <row r="132" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="163">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B132" s="157"/>
+      <c r="C132" s="155"/>
+      <c r="D132" s="156"/>
+      <c r="E132" s="151"/>
+      <c r="F132" s="152" t="s">
+        <v>213</v>
+      </c>
+      <c r="G132" s="151"/>
+      <c r="H132" s="151"/>
+      <c r="I132" s="151"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
+    <row r="133" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="163">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B133" s="158"/>
+      <c r="C133" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="162" t="s">
+        <v>66</v>
+      </c>
+      <c r="E133" s="151"/>
+      <c r="F133" s="152" t="s">
+        <v>215</v>
+      </c>
+      <c r="G133" s="151"/>
+      <c r="H133" s="151"/>
+      <c r="I133" s="151"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
+    <row r="134" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="163">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B134" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E134" s="22"/>
+      <c r="F134" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
+    <row r="135" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="163">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B135" s="126"/>
+      <c r="C135" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
+    <row r="136" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="163">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B136" s="126"/>
+      <c r="C136" s="120"/>
+      <c r="D136" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E136" s="22"/>
+      <c r="F136" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
+    <row r="137" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="163">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B137" s="126"/>
+      <c r="C137" s="121"/>
+      <c r="D137" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="121"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
+    <row r="138" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="163">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B138" s="126"/>
+      <c r="C138" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="22"/>
+      <c r="F138" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="22"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
+    <row r="139" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="163">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B139" s="126"/>
+      <c r="C139" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E139" s="22"/>
+      <c r="F139" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
+    <row r="140" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="163">
+        <f t="shared" ref="A140:A176" si="2">ROW(A130)</f>
+        <v>130</v>
+      </c>
+      <c r="B140" s="126"/>
+      <c r="C140" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="22"/>
+      <c r="F140" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="22"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
+    <row r="141" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="163">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B141" s="126"/>
+      <c r="C141" s="120"/>
+      <c r="D141" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141" s="22"/>
+      <c r="F141" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="22"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
+    <row r="142" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="163">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B142" s="126"/>
+      <c r="C142" s="120"/>
+      <c r="D142" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E142" s="22"/>
+      <c r="F142" s="123"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
+    <row r="143" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="163">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B143" s="126"/>
+      <c r="C143" s="121"/>
+      <c r="D143" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" s="22"/>
+      <c r="F143" s="124"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+    <row r="144" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="163">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B144" s="126"/>
+      <c r="C144" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E144" s="22"/>
+      <c r="F144" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+    <row r="145" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="163">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B145" s="126"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E145" s="22"/>
+      <c r="F145" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+    <row r="146" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="163">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B146" s="126"/>
+      <c r="C146" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E146" s="22"/>
+      <c r="F146" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+    <row r="147" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="163">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B147" s="127"/>
+      <c r="C147" s="121"/>
+      <c r="D147" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E147" s="22"/>
+      <c r="F147" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
+    <row r="148" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="163">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B148" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
+    <row r="149" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="163">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B149" s="134"/>
+      <c r="C149" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="D149" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" s="24"/>
+      <c r="F149" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G149" s="34"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
+    <row r="150" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="163">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B150" s="134"/>
+      <c r="C150" s="148"/>
+      <c r="D150" s="148"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G150" s="33"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
+    <row r="151" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="163">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B151" s="134"/>
+      <c r="C151" s="148"/>
+      <c r="D151" s="148"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G151" s="33"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
+    <row r="152" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="163">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B152" s="134"/>
+      <c r="C152" s="118"/>
+      <c r="D152" s="118"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G152" s="33"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
+    <row r="153" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="163">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B153" s="134"/>
+      <c r="C153" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
+    <row r="154" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="163">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B154" s="134"/>
+      <c r="C154" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E154" s="26"/>
+      <c r="F154" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
+    <row r="155" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="163">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B155" s="134"/>
+      <c r="C155" s="118"/>
+      <c r="D155" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
+    <row r="156" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="163">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B156" s="134"/>
+      <c r="C156" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
+    <row r="157" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="163">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B157" s="135"/>
+      <c r="C157" s="118"/>
+      <c r="D157" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
+    <row r="158" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="163">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B158" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+    <row r="159" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="163">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B159" s="129"/>
+      <c r="C159" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E159" s="27"/>
+      <c r="F159" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+    <row r="160" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="163">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B160" s="129"/>
+      <c r="C160" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" s="27"/>
+      <c r="F160" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+    <row r="161" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="163">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B161" s="129"/>
+      <c r="C161" s="132"/>
+      <c r="D161" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E161" s="27"/>
+      <c r="F161" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
+    <row r="162" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="163">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B162" s="129"/>
+      <c r="C162" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E162" s="27"/>
+      <c r="F162" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+    <row r="163" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="163">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B163" s="129"/>
+      <c r="C163" s="132"/>
+      <c r="D163" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E163" s="48"/>
+      <c r="F163" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G163" s="48"/>
+      <c r="H163" s="48"/>
+      <c r="I163" s="48"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
+    <row r="164" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="163">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B164" s="129"/>
+      <c r="C164" s="131" t="s">
+        <v>202</v>
+      </c>
+      <c r="D164" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E164" s="48"/>
+      <c r="F164" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="147"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
+    <row r="165" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="163">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B165" s="130"/>
+      <c r="C165" s="132"/>
+      <c r="D165" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" s="48"/>
+      <c r="F165" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="147"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+    <row r="166" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="163">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B166" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="62"/>
+      <c r="D166" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" s="62"/>
+      <c r="F166" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G166" s="62"/>
+      <c r="H166" s="62"/>
+      <c r="I166" s="63"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
+    <row r="167" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="163">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B167" s="82"/>
+      <c r="C167" s="65"/>
+      <c r="D167" s="62"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="62"/>
+      <c r="G167" s="62"/>
+      <c r="H167" s="62"/>
+      <c r="I167" s="63"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
+    <row r="168" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="163">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B168" s="82"/>
+      <c r="C168" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E168" s="62"/>
+      <c r="F168" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G168" s="62"/>
+      <c r="H168" s="62"/>
+      <c r="I168" s="62"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
+    <row r="169" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="163">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B169" s="82"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E169" s="62"/>
+      <c r="F169" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G169" s="62"/>
+      <c r="H169" s="62"/>
+      <c r="I169" s="62"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
+    <row r="170" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="163">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B170" s="82"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E170" s="62"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="62"/>
+      <c r="I170" s="62"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
+    <row r="171" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="163">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B171" s="83"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="61"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="61"/>
+      <c r="H171" s="61"/>
+      <c r="I171" s="61"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
+    <row r="172" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B172" s="61"/>
+      <c r="C172" s="61"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="61"/>
+      <c r="F172" s="61"/>
+      <c r="G172" s="61"/>
+      <c r="H172" s="61"/>
+      <c r="I172" s="61"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
+    <row r="173" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="163">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B173" s="61"/>
+      <c r="C173" s="61"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="61"/>
+      <c r="H173" s="61"/>
+      <c r="I173" s="61"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
+    <row r="174" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="163">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B174" s="61"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="61"/>
+      <c r="E174" s="61"/>
+      <c r="F174" s="61"/>
+      <c r="G174" s="61"/>
+      <c r="H174" s="61"/>
+      <c r="I174" s="61"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
+    <row r="175" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="163">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B175" s="61"/>
+      <c r="C175" s="61"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
+    <row r="176" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="163">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B176" s="61"/>
+      <c r="C176" s="61"/>
+      <c r="D176" s="61"/>
+      <c r="E176" s="61"/>
+      <c r="F176" s="61"/>
+      <c r="G176" s="61"/>
+      <c r="H176" s="61"/>
+      <c r="I176" s="61"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="38"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="38"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="38"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="38"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="38"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="38"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="38"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="38"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="38"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="38"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="38"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="38"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="38"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="38"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="38"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="38"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B72:B76"/>
+  <mergeCells count="71">
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B105:B116"/>
+    <mergeCell ref="B148:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B134:B147"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B68:B79"/>
+    <mergeCell ref="B158:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="C25:C33"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F82:F89"/>
+    <mergeCell ref="C81:C89"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B117:B121"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B41:B56"/>
+    <mergeCell ref="B11:B40"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B80:B92"/>
+    <mergeCell ref="F101:F102"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="C11:C18"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="C25:C33"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F60:F66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="B11:B38"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B58:B69"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B82:B93"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B95:B104"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="F110:F112"/>
     <mergeCell ref="C103:C104"/>
-    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="C154:C155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test_senaryoları.xlsx
+++ b/test_senaryoları.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ersin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ersin\Desktop\Ersin İçen HR210046\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122866E3-3AF6-4722-8AD8-B4E3D1AAAEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E466A2-BCE6-4FB1-8E39-794FF4E27D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{21F89864-9DF5-46CC-AD43-FC4DEE93CEA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="247">
   <si>
     <t>Proje Adı</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Kullanıcıyı anasayfaya yönlendirme</t>
-  </si>
-  <si>
-    <t>Kullanıcıya yönlendirilecek sayfa hakkında bilgi verme</t>
   </si>
   <si>
     <t>Kullanıcının adı veya parolası doğru değil hatası verir</t>
@@ -371,9 +368,6 @@
 Şifre ve Şifre onay bilgileri girilir</t>
   </si>
   <si>
-    <t>Kullanıcı siteye kayıt olur</t>
-  </si>
-  <si>
     <t>Telefon bilgilerinin eksik veya uygun 
 formatta olmaması</t>
   </si>
@@ -601,16 +595,6 @@
     <t>Seçilen yorum  daha detaylı bir şekilde ekrana gelir</t>
   </si>
   <si>
-    <t>Beğendim, Beğenmedim butonu</t>
-  </si>
-  <si>
-    <t>İkisinden birisine tıklanılır</t>
-  </si>
-  <si>
-    <t>Seçilen buton Beğendim butonu ise "Yeşil" rengine döner.
-Beğenmedim butonu ise "Kırmızı" rengine döner.</t>
-  </si>
-  <si>
     <t>Ad Soyad, E-mail ve yorum yazılır ve verilecek yıldız seçilir 
 (1-5) sonrasında gönder butonuna tıklanır</t>
   </si>
@@ -724,13 +708,115 @@
   </si>
   <si>
     <t>Çarpıya basılarak rezervasyon bilgileri kapanır</t>
+  </si>
+  <si>
+    <t>Giriş Ekranı</t>
+  </si>
+  <si>
+    <t>Giriş yapma sayfasına yönlendirir</t>
+  </si>
+  <si>
+    <t>Beni Hatırla Butonu</t>
+  </si>
+  <si>
+    <t>Kayıt olma sayfasına yönlendirir</t>
+  </si>
+  <si>
+    <t>Kayıt Ol Ekranı</t>
+  </si>
+  <si>
+    <t>Giriş ekranının gelmesi beklenir</t>
+  </si>
+  <si>
+    <t>Kullanıcı anasayfaya yönlendirilir</t>
+  </si>
+  <si>
+    <t>Kayıt ol ekranının gelmesi beklenir</t>
+  </si>
+  <si>
+    <t>Telefon numarasının önceden sisteme kayıtlı olması</t>
+  </si>
+  <si>
+    <t>E-mail'in önceden sisteme kayıtlı olması</t>
+  </si>
+  <si>
+    <t>Bu telefon numarası ile daha önce kayıt olunmuş 
+Hatası verir</t>
+  </si>
+  <si>
+    <t>Bu E-mail ile daha önce kayıt olunmuş 
+Hatası verir</t>
+  </si>
+  <si>
+    <t>Kullanıcı siteye kayıt olur ve 
+giriş ekranına yönlendirilir</t>
+  </si>
+  <si>
+    <t>Hem telefon numarası hemde e-mail'in daha 
+önceden sisteme kayıtlı olması</t>
+  </si>
+  <si>
+    <t>Bu telefon numarası ve e-mail ile daha önce kayıt olunmuş 
+Hatası verir</t>
+  </si>
+  <si>
+    <t>Butona tik atılırsa</t>
+  </si>
+  <si>
+    <t>Kullanıcının giriş bilgileri sisteme kaydedilir bir daha 
+giriş yaparken sorulmaz</t>
+  </si>
+  <si>
+    <t>Butona tik atılmaz ise</t>
+  </si>
+  <si>
+    <t>Hiçbir şey yapılmaz</t>
+  </si>
+  <si>
+    <t>TripWizard Logo</t>
+  </si>
+  <si>
+    <t>Logoya tıklanır</t>
+  </si>
+  <si>
+    <t>Anasayfaya yönlendirilir</t>
+  </si>
+  <si>
+    <t>"Admin User Name" ve ya Fotoğraf</t>
+  </si>
+  <si>
+    <t>Beğendim butonu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buton "Yeşil" rengine döner.</t>
+  </si>
+  <si>
+    <t>Beğenmedim butonu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buton "Kırmızı" rengine döner.</t>
+  </si>
+  <si>
+    <t>Önceki Sayfa butonu</t>
+  </si>
+  <si>
+    <t>Sonraki sayfanın gelmesi beklenir</t>
+  </si>
+  <si>
+    <t>Önceki sayfanın gelmesi beklenir</t>
+  </si>
+  <si>
+    <t>Fotoğraf ekle butonu</t>
+  </si>
+  <si>
+    <t>Dosya gezginini açar ve fotoğraf seçmenizi ister</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,13 +858,6 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -794,7 +873,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +961,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,33 +1256,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,9 +1289,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,24 +1314,79 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,15 +1406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,94 +1438,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,6 +1453,147 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1424,112 +1603,94 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,13 +1700,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF6699"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF813F3F"/>
+      <color rgb="FFABA415"/>
+      <color rgb="FF297D97"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FFFF6699"/>
       <color rgb="FF009900"/>
       <color rgb="FF3333CC"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FF00CC66"/>
-      <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1856,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E873CFB-3A35-48D3-B473-822AB0BD7015}">
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,49 +2040,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="113"/>
+      <c r="C1" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>44923</v>
       </c>
     </row>
@@ -1929,48 +2093,48 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="62" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="163">
+      <c r="A11" s="77">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="78" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="99" t="s">
-        <v>25</v>
+      <c r="F11" s="78" t="s">
+        <v>216</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1981,18 +2145,22 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="163">
+    <row r="12" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="77">
         <f t="shared" ref="A12:A75" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
+      <c r="B12" s="122"/>
+      <c r="C12" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="100"/>
+      <c r="F12" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2002,19 +2170,21 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="163">
+    <row r="13" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="109"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="109" t="s">
-        <v>27</v>
+      <c r="F13" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2025,18 +2195,22 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="163">
+    <row r="14" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="109"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="116" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="109"/>
+      <c r="F14" s="36" t="s">
+        <v>120</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2046,18 +2220,20 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="163">
+    <row r="15" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="109"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="3" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="109"/>
+      <c r="F15" s="36" t="s">
+        <v>130</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2067,18 +2243,22 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163">
+    <row r="16" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="109"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="116" t="s">
+        <v>187</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="109"/>
+      <c r="F16" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2088,18 +2268,20 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="163">
+    <row r="17" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="77">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="100"/>
+      <c r="F17" s="36" t="s">
+        <v>191</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -2109,19 +2291,21 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="163">
+    <row r="18" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="77">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="30" t="s">
+        <v>131</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
+      <c r="F18" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2132,21 +2316,21 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163">
+    <row r="19" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="77">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="99" t="s">
-        <v>149</v>
+      <c r="B19" s="122"/>
+      <c r="C19" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>25</v>
+      <c r="F19" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2157,19 +2341,21 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="163">
+    <row r="20" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="100"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="78" t="s">
+        <v>234</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>151</v>
+      <c r="F20" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2180,412 +2366,416 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="163">
+    <row r="21" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="113" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="165" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="163">
+    <row r="22" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="77">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="167" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="163">
+    <row r="23" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="77">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163">
+    <row r="24" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="77">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="163">
+    <row r="25" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="77">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="163">
+    <row r="26" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="77">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="163">
+    <row r="27" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="77">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="163">
+    <row r="28" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="163">
+    <row r="29" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="77">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="163">
+    <row r="30" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="77">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="163">
+    <row r="31" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="163">
+    <row r="32" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="77">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="165" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="163">
+    <row r="33" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="163">
+    <row r="34" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="77">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163">
+    <row r="35" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="77">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163">
+    <row r="36" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="77">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="127" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="163">
+    <row r="37" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="77">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="163">
+    <row r="38" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="77">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2593,927 +2783,901 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163">
+      <c r="A39" s="77">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="B39" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="169"/>
+      <c r="D39" s="170" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="170"/>
+      <c r="F39" s="171" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="163">
+    <row r="40" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="77">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="174" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="170"/>
+      <c r="F40" s="174" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="163">
+    <row r="41" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="77">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B41" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="170"/>
+      <c r="F41" s="175" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="163">
+    <row r="42" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="77">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="170" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="170"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="163">
+    <row r="43" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="77">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="174" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="170"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="163">
+    <row r="44" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="77">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="110" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="170"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="163">
+    <row r="45" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="77">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="170"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163">
+    <row r="46" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="77">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="170"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="163">
+    <row r="47" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="77">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="170"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="163">
+    <row r="48" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="77">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="170"/>
+      <c r="F48" s="177"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="163">
+    <row r="49" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="77">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="170"/>
+      <c r="F49" s="178" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="163">
+    <row r="50" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="77">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="170"/>
+      <c r="F50" s="178" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="170"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="163">
+    <row r="51" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="77">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="174" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="170"/>
+      <c r="F51" s="178" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="163">
+    <row r="52" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="77">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="163">
+    <row r="53" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="77">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="163">
+    <row r="54" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="77">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="176" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="163">
+    <row r="55" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="77">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B55" s="102"/>
-      <c r="C55" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="B55" s="173"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="163">
+    <row r="56" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="77">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B56" s="103"/>
-      <c r="C56" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="B56" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="163">
+    <row r="57" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="77">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B57" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="163">
+    <row r="58" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="77">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="163">
+    <row r="59" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="77">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="135" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="163">
+    <row r="60" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="77">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="163">
+    <row r="61" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="77">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="163">
+    <row r="62" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="77">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B62" s="79"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="163">
+    <row r="63" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="77">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B63" s="79"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="163">
+    <row r="64" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="77">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="163">
+    <row r="65" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="77">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="163">
+    <row r="66" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="77">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="163">
+    <row r="67" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="77">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="163">
+    <row r="68" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="77">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B68" s="136" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" s="139"/>
-      <c r="D68" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="139"/>
-      <c r="F68" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="G68" s="139"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="163">
+    <row r="69" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="77">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="141"/>
-      <c r="C69" s="143" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="138" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="139"/>
-      <c r="F69" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" s="139"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="139"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="163">
+    <row r="70" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="77">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="141"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="138" t="s">
+      <c r="B70" s="119"/>
+      <c r="C70" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="139"/>
-      <c r="F70" s="140" t="s">
+      <c r="D70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G70" s="139"/>
-      <c r="H70" s="139"/>
-      <c r="I70" s="139"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="163">
+    <row r="71" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="77">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="141"/>
-      <c r="C71" s="143" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="139"/>
-      <c r="F71" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="G71" s="139"/>
-      <c r="H71" s="139"/>
-      <c r="I71" s="139"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="163">
+    <row r="72" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="77">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B72" s="141"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="138" t="s">
-        <v>217</v>
-      </c>
-      <c r="E72" s="139"/>
-      <c r="F72" s="140" t="s">
-        <v>216</v>
-      </c>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="163">
+    <row r="73" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="77">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B73" s="141"/>
-      <c r="C73" s="143" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="138" t="s">
-        <v>193</v>
-      </c>
-      <c r="E73" s="139"/>
-      <c r="F73" s="139" t="s">
-        <v>194</v>
-      </c>
-      <c r="G73" s="139"/>
-      <c r="H73" s="139"/>
-      <c r="I73" s="139"/>
+      <c r="B73" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="163">
+    <row r="74" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="77">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B74" s="141"/>
-      <c r="C74" s="144"/>
-      <c r="D74" s="138" t="s">
-        <v>195</v>
-      </c>
-      <c r="E74" s="139"/>
-      <c r="F74" s="139" t="s">
-        <v>196</v>
-      </c>
-      <c r="G74" s="139"/>
-      <c r="H74" s="139"/>
-      <c r="I74" s="139"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="163">
+    <row r="75" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="77">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B75" s="141"/>
-      <c r="C75" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="D75" s="138" t="s">
-        <v>66</v>
-      </c>
-      <c r="E75" s="139"/>
-      <c r="F75" s="139" t="s">
-        <v>198</v>
-      </c>
-      <c r="G75" s="139"/>
-      <c r="H75" s="139"/>
-      <c r="I75" s="139"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="163">
-        <f t="shared" ref="A76:A139" si="1">ROW(A66)</f>
+    <row r="76" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="77">
+        <f t="shared" ref="A76:A142" si="1">ROW(A66)</f>
         <v>66</v>
       </c>
-      <c r="B76" s="141"/>
-      <c r="C76" s="143" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="145" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="139"/>
-      <c r="F76" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="G76" s="139"/>
-      <c r="H76" s="139"/>
-      <c r="I76" s="139"/>
+      <c r="B76" s="150"/>
+      <c r="C76" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3521,22 +3685,24 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="163">
+      <c r="A77" s="77">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B77" s="141"/>
-      <c r="C77" s="146"/>
-      <c r="D77" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="139"/>
-      <c r="F77" s="143" t="s">
-        <v>60</v>
-      </c>
-      <c r="G77" s="139"/>
-      <c r="H77" s="139"/>
-      <c r="I77" s="139"/>
+      <c r="B77" s="150"/>
+      <c r="C77" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3544,20 +3710,22 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="163">
+      <c r="A78" s="77">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B78" s="141"/>
-      <c r="C78" s="146"/>
-      <c r="D78" s="138" t="s">
-        <v>162</v>
-      </c>
-      <c r="E78" s="139"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="139"/>
-      <c r="H78" s="139"/>
-      <c r="I78" s="139"/>
+      <c r="B78" s="150"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3565,783 +3733,795 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="163">
+      <c r="A79" s="77">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B79" s="142"/>
-      <c r="C79" s="144"/>
-      <c r="D79" s="138" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="139"/>
-      <c r="F79" s="144"/>
-      <c r="G79" s="139"/>
-      <c r="H79" s="139"/>
-      <c r="I79" s="139"/>
+      <c r="B79" s="150"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="163">
+    <row r="80" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="77">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B80" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
+      <c r="B80" s="150"/>
+      <c r="C80" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="163">
+    <row r="81" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="77">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B81" s="108"/>
-      <c r="C81" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="12"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="163">
+    <row r="82" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="77">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
+      <c r="B82" s="150"/>
+      <c r="C82" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="163">
+    <row r="83" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="77">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B83" s="108"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
+      <c r="B83" s="150"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="163">
+    <row r="84" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="77">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B84" s="108"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="B84" s="150"/>
+      <c r="C84" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="163">
+    <row r="85" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="77">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B85" s="108"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
+      <c r="B85" s="150"/>
+      <c r="C85" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="163">
+    <row r="86" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B86" s="108"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="163">
+    <row r="87" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="77">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B87" s="108"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="95"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
+      <c r="B87" s="143" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="67"/>
+      <c r="D87" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="67"/>
+      <c r="F87" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="163">
+    <row r="88" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="77">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B88" s="108"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="95"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="67"/>
+      <c r="F88" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="163">
+    <row r="89" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="77">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B89" s="108"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="139"/>
+      <c r="D89" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="67"/>
+      <c r="F89" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="163">
+    <row r="90" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="77">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B90" s="108"/>
-      <c r="C90" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
+      <c r="B90" s="144"/>
+      <c r="C90" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="67"/>
+      <c r="F90" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="163">
+    <row r="91" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="77">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
+      <c r="B91" s="144"/>
+      <c r="C91" s="139"/>
+      <c r="D91" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="67"/>
+      <c r="F91" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="163">
+    <row r="92" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="77">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B92" s="108"/>
-      <c r="C92" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="163">
+    <row r="93" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="77">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B93" s="46"/>
-      <c r="C93" s="95"/>
-      <c r="D93" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
+      <c r="B93" s="144"/>
+      <c r="C93" s="139"/>
+      <c r="D93" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="163">
+    <row r="94" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="77">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B94" s="46"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
+      <c r="B94" s="144"/>
+      <c r="C94" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="163">
+    <row r="95" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="77">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B95" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="56"/>
-      <c r="D95" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E95" s="58"/>
-      <c r="F95" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="163">
+    <row r="96" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="77">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B96" s="76"/>
-      <c r="C96" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D96" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="E96" s="58"/>
-      <c r="F96" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="58"/>
+      <c r="B96" s="144"/>
+      <c r="C96" s="138"/>
+      <c r="D96" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="67"/>
+      <c r="F96" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="163">
+    <row r="97" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="77">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B97" s="76"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E97" s="58"/>
-      <c r="F97" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
+      <c r="B97" s="144"/>
+      <c r="C97" s="138"/>
+      <c r="D97" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E97" s="67"/>
+      <c r="F97" s="138"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="163">
+    <row r="98" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="77">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B98" s="76"/>
-      <c r="C98" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="D98" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="E98" s="58"/>
-      <c r="F98" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
+      <c r="B98" s="144"/>
+      <c r="C98" s="139"/>
+      <c r="D98" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="67"/>
+      <c r="F98" s="139"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="163">
+    <row r="99" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="77">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B99" s="76"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="E99" s="58"/>
-      <c r="F99" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" s="67"/>
+      <c r="F99" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="163">
+    <row r="100" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="77">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B100" s="76"/>
-      <c r="C100" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="D100" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E100" s="58"/>
-      <c r="F100" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
+      <c r="B100" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="163">
+    <row r="101" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="77">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B101" s="76"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101" s="58"/>
-      <c r="F101" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="58"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="12"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="163">
+    <row r="102" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="77">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B102" s="76"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E102" s="58"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
+      <c r="B102" s="125"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="163">
+    <row r="103" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="77">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E103" s="58"/>
-      <c r="F103" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
+      <c r="B103" s="125"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="112"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="163">
+    <row r="104" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="77">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B104" s="77"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E104" s="58"/>
-      <c r="F104" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
+      <c r="B104" s="125"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="112"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="163">
+    <row r="105" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="77">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B105" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" s="54"/>
-      <c r="D105" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="112"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="163">
+    <row r="106" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="77">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B106" s="79"/>
-      <c r="C106" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D106" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
+      <c r="B106" s="125"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="112"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="163">
+    <row r="107" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="77">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B107" s="79"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
+      <c r="B107" s="125"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="163">
+    <row r="108" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="77">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B108" s="79"/>
-      <c r="C108" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="112"/>
+      <c r="D108" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="112"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="163">
+    <row r="109" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="77">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B109" s="79"/>
-      <c r="C109" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="111"/>
+      <c r="D109" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="111"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="163">
+    <row r="110" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="77">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B110" s="79"/>
-      <c r="C110" s="87"/>
-      <c r="D110" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
+      <c r="B110" s="125"/>
+      <c r="C110" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="163">
+    <row r="111" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="77">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B111" s="79"/>
-      <c r="C111" s="87"/>
-      <c r="D111" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="89"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
+      <c r="B111" s="125"/>
+      <c r="C111" s="111"/>
+      <c r="D111" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="163">
+    <row r="112" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="77">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B112" s="79"/>
-      <c r="C112" s="74"/>
-      <c r="D112" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
+      <c r="B112" s="125"/>
+      <c r="C112" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -4349,95 +4529,93 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="163">
+      <c r="A113" s="77">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B113" s="79"/>
-      <c r="C113" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
+      <c r="B113" s="125"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="163">
+    <row r="114" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="77">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B114" s="79"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
+      <c r="B114" s="125"/>
+      <c r="C114" s="111"/>
+      <c r="D114" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="111"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="163">
+    <row r="115" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="77">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B115" s="79"/>
-      <c r="C115" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="D115" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
+      <c r="B115" s="182"/>
+      <c r="C115" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="163">
+    <row r="116" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="77">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B116" s="80"/>
-      <c r="C116" s="74"/>
+      <c r="B116" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" s="52"/>
       <c r="D116" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="E116" s="54"/>
+      <c r="F116" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -4445,314 +4623,310 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="163">
+      <c r="A117" s="77">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B117" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117" s="54"/>
+      <c r="F117" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="163">
+    <row r="118" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="77">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B118" s="97"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="E118" s="18"/>
-      <c r="F118" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
+      <c r="B118" s="91"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E118" s="54"/>
+      <c r="F118" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="163">
+    <row r="119" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="77">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B119" s="97"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="115"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119" s="54"/>
+      <c r="F119" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="163">
+    <row r="120" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="77">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B120" s="97"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="116"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" s="54"/>
+      <c r="F120" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="G120" s="54"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="163">
+    <row r="121" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="77">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B121" s="98"/>
-      <c r="C121" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" s="54"/>
+      <c r="F121" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="163">
+    <row r="122" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="77">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B122" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E122" s="51"/>
-      <c r="F122" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="97"/>
+      <c r="D122" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E122" s="54"/>
+      <c r="F122" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="163">
+    <row r="123" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="77">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B123" s="92"/>
-      <c r="C123" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D123" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="51"/>
-      <c r="F123" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="98"/>
+      <c r="D123" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E123" s="54"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="163">
+    <row r="124" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="77">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B124" s="92"/>
-      <c r="C124" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D124" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="E124" s="51"/>
-      <c r="F124" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="G124" s="51"/>
-      <c r="H124" s="51"/>
-      <c r="I124" s="51"/>
+      <c r="B124" s="91"/>
+      <c r="C124" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="54"/>
+      <c r="F124" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="163">
+    <row r="125" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="77">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B125" s="92"/>
-      <c r="C125" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" s="51"/>
-      <c r="F125" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G125" s="51"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="51"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E125" s="54"/>
+      <c r="F125" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="163">
+    <row r="126" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="77">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B126" s="92"/>
-      <c r="C126" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D126" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E126" s="51"/>
-      <c r="F126" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G126" s="51"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="51"/>
+      <c r="C126" s="179" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" s="180" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126" s="180"/>
+      <c r="F126" s="181" t="s">
+        <v>236</v>
+      </c>
+      <c r="G126" s="180"/>
+      <c r="H126" s="180"/>
+      <c r="I126" s="180"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="163">
+    <row r="127" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="77">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B127" s="92"/>
-      <c r="C127" s="52" t="s">
-        <v>208</v>
-      </c>
+      <c r="B127" s="149" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="10"/>
       <c r="D127" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E127" s="51"/>
-      <c r="F127" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
+        <v>46</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="163">
+    <row r="128" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="77">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B128" s="157" t="s">
-        <v>214</v>
-      </c>
-      <c r="C128" s="152"/>
-      <c r="D128" s="160" t="s">
-        <v>47</v>
-      </c>
-      <c r="E128" s="151"/>
-      <c r="F128" s="161" t="s">
-        <v>209</v>
-      </c>
-      <c r="G128" s="151"/>
-      <c r="H128" s="151"/>
-      <c r="I128" s="151"/>
+      <c r="B128" s="150"/>
+      <c r="C128" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="163">
+    <row r="129" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="77">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B129" s="157"/>
-      <c r="C129" s="149"/>
-      <c r="D129" s="150" t="s">
-        <v>44</v>
-      </c>
-      <c r="E129" s="151"/>
-      <c r="F129" s="152" t="s">
-        <v>210</v>
-      </c>
-      <c r="G129" s="151"/>
-      <c r="H129" s="151"/>
-      <c r="I129" s="151"/>
+      <c r="B129" s="150"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -4760,442 +4934,452 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="163">
+      <c r="A130" s="77">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B130" s="157"/>
-      <c r="C130" s="153"/>
-      <c r="D130" s="154"/>
-      <c r="E130" s="151"/>
-      <c r="F130" s="152" t="s">
-        <v>211</v>
-      </c>
-      <c r="G130" s="151"/>
-      <c r="H130" s="151"/>
-      <c r="I130" s="151"/>
+      <c r="B130" s="150"/>
+      <c r="C130" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="163">
+    <row r="131" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="77">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B131" s="157"/>
-      <c r="C131" s="153"/>
-      <c r="D131" s="154"/>
-      <c r="E131" s="151"/>
-      <c r="F131" s="152" t="s">
-        <v>212</v>
-      </c>
-      <c r="G131" s="151"/>
-      <c r="H131" s="151"/>
-      <c r="I131" s="151"/>
+      <c r="B131" s="150"/>
+      <c r="C131" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="163">
+    <row r="132" spans="1:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="77">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B132" s="157"/>
-      <c r="C132" s="155"/>
-      <c r="D132" s="156"/>
-      <c r="E132" s="151"/>
-      <c r="F132" s="152" t="s">
-        <v>213</v>
-      </c>
-      <c r="G132" s="151"/>
-      <c r="H132" s="151"/>
-      <c r="I132" s="151"/>
+      <c r="B132" s="150"/>
+      <c r="C132" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="163">
+    <row r="133" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="77">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B133" s="158"/>
-      <c r="C133" s="159" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133" s="162" t="s">
-        <v>66</v>
-      </c>
-      <c r="E133" s="151"/>
-      <c r="F133" s="152" t="s">
-        <v>215</v>
-      </c>
-      <c r="G133" s="151"/>
-      <c r="H133" s="151"/>
-      <c r="I133" s="151"/>
+      <c r="B133" s="150"/>
+      <c r="C133" s="99"/>
+      <c r="D133" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="163">
+    <row r="134" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="77">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B134" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
+      <c r="B134" s="150"/>
+      <c r="C134" s="99"/>
+      <c r="D134" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="163">
+    <row r="135" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="77">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B135" s="126"/>
-      <c r="C135" s="119" t="s">
-        <v>70</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
+      <c r="B135" s="150"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="102"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="163">
+    <row r="136" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="77">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B136" s="126"/>
-      <c r="C136" s="120"/>
-      <c r="D136" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="22"/>
+      <c r="B136" s="150"/>
+      <c r="C136" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="163">
+    <row r="137" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="77">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B137" s="126"/>
-      <c r="C137" s="121"/>
-      <c r="D137" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="121"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="22"/>
+      <c r="B137" s="150"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="163">
+    <row r="138" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="77">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B138" s="126"/>
-      <c r="C138" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="22"/>
-      <c r="F138" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="22"/>
+      <c r="B138" s="150"/>
+      <c r="C138" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="D138" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="163">
+    <row r="139" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="77">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B139" s="126"/>
-      <c r="C139" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E139" s="22"/>
-      <c r="F139" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
+      <c r="B139" s="150"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="163">
-        <f t="shared" ref="A140:A176" si="2">ROW(A130)</f>
+    <row r="140" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="77">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B140" s="126"/>
-      <c r="C140" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E140" s="22"/>
-      <c r="F140" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G140" s="22"/>
-      <c r="H140" s="22"/>
-      <c r="I140" s="22"/>
+      <c r="B140" s="151"/>
+      <c r="C140" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="163">
-        <f t="shared" si="2"/>
+    <row r="141" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="77">
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="B141" s="126"/>
-      <c r="C141" s="120"/>
-      <c r="D141" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E141" s="22"/>
-      <c r="F141" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="G141" s="22"/>
-      <c r="H141" s="22"/>
-      <c r="I141" s="22"/>
+      <c r="B141" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="163">
-        <f t="shared" si="2"/>
+    <row r="142" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="77">
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="B142" s="126"/>
-      <c r="C142" s="120"/>
-      <c r="D142" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E142" s="22"/>
-      <c r="F142" s="123"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="22"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" s="18"/>
+      <c r="F142" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="163">
-        <f t="shared" si="2"/>
+    <row r="143" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="77">
+        <f t="shared" ref="A143:A202" si="2">ROW(A133)</f>
         <v>133</v>
       </c>
-      <c r="B143" s="126"/>
-      <c r="C143" s="121"/>
-      <c r="D143" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="124"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
+      <c r="B143" s="114"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="128"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="163">
+    <row r="144" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="77">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B144" s="126"/>
-      <c r="C144" s="119" t="s">
-        <v>120</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E144" s="22"/>
-      <c r="F144" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G144" s="22"/>
-      <c r="H144" s="22"/>
-      <c r="I144" s="22"/>
+      <c r="B144" s="114"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="129"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="163">
+    <row r="145" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="77">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B145" s="126"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
+      <c r="B145" s="114"/>
+      <c r="C145" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E145" s="18"/>
+      <c r="F145" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="163">
+    <row r="146" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="77">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B146" s="126"/>
-      <c r="C146" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E146" s="22"/>
-      <c r="F146" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
+      <c r="B146" s="115"/>
+      <c r="C146" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E146" s="16"/>
+      <c r="F146" s="165" t="s">
+        <v>236</v>
+      </c>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="163">
+    <row r="147" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="77">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B147" s="127"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
+      <c r="B147" s="158" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147" s="48"/>
+      <c r="F147" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="48"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="163">
+    <row r="148" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="77">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B148" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="24"/>
+      <c r="B148" s="159"/>
+      <c r="C148" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" s="48"/>
+      <c r="F148" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="48"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -5203,1063 +5387,1290 @@
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="163">
+      <c r="A149" s="77">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B149" s="134"/>
-      <c r="C149" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="D149" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G149" s="34"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
+      <c r="B149" s="159"/>
+      <c r="C149" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149" s="48"/>
+      <c r="F149" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="48"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="163">
+    <row r="150" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="77">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B150" s="134"/>
-      <c r="C150" s="148"/>
-      <c r="D150" s="148"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G150" s="33"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
+      <c r="B150" s="159"/>
+      <c r="C150" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="48"/>
+      <c r="F150" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G150" s="48"/>
+      <c r="H150" s="48"/>
+      <c r="I150" s="48"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="163">
+    <row r="151" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="77">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B151" s="134"/>
-      <c r="C151" s="148"/>
-      <c r="D151" s="148"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G151" s="33"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
+      <c r="B151" s="159"/>
+      <c r="C151" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="48"/>
+      <c r="F151" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="48"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="163">
+    <row r="152" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="77">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B152" s="134"/>
-      <c r="C152" s="118"/>
-      <c r="D152" s="118"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G152" s="33"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
+      <c r="B152" s="185"/>
+      <c r="C152" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D152" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E152" s="48"/>
+      <c r="F152" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="48"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="163">
+    <row r="153" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="77">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B153" s="134"/>
-      <c r="C153" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="26"/>
+      <c r="B153" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="C153" s="73"/>
+      <c r="D153" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="72"/>
+      <c r="F153" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="G153" s="72"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="163">
+    <row r="154" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="77">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B154" s="134"/>
-      <c r="C154" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E154" s="26"/>
-      <c r="F154" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="26"/>
+      <c r="B154" s="163"/>
+      <c r="C154" s="160"/>
+      <c r="D154" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="72"/>
+      <c r="F154" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="G154" s="72"/>
+      <c r="H154" s="72"/>
+      <c r="I154" s="72"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="163">
+    <row r="155" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="77">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B155" s="134"/>
-      <c r="C155" s="118"/>
-      <c r="D155" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="26"/>
+      <c r="B155" s="163"/>
+      <c r="C155" s="161"/>
+      <c r="D155" s="133"/>
+      <c r="E155" s="72"/>
+      <c r="F155" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="G155" s="72"/>
+      <c r="H155" s="72"/>
+      <c r="I155" s="72"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="163">
+    <row r="156" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="77">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B156" s="134"/>
-      <c r="C156" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="D156" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
+      <c r="B156" s="163"/>
+      <c r="C156" s="161"/>
+      <c r="D156" s="133"/>
+      <c r="E156" s="72"/>
+      <c r="F156" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="G156" s="72"/>
+      <c r="H156" s="72"/>
+      <c r="I156" s="72"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="163">
+    <row r="157" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="77">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B157" s="135"/>
-      <c r="C157" s="118"/>
-      <c r="D157" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
+      <c r="B157" s="163"/>
+      <c r="C157" s="162"/>
+      <c r="D157" s="134"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="G157" s="72"/>
+      <c r="H157" s="72"/>
+      <c r="I157" s="72"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="163">
+    <row r="158" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="77">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B158" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
+      <c r="B158" s="164"/>
+      <c r="C158" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E158" s="72"/>
+      <c r="F158" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G158" s="72"/>
+      <c r="H158" s="72"/>
+      <c r="I158" s="72"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="163">
+    <row r="159" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="77">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B159" s="129"/>
-      <c r="C159" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E159" s="27"/>
-      <c r="F159" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
+      <c r="B159" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E159" s="22"/>
+      <c r="F159" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="22"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="163">
+    <row r="160" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="77">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B160" s="129"/>
-      <c r="C160" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E160" s="27"/>
-      <c r="F160" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
+      <c r="B160" s="156"/>
+      <c r="C160" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E160" s="22"/>
+      <c r="F160" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="163">
+    <row r="161" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="77">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B161" s="129"/>
-      <c r="C161" s="132"/>
-      <c r="D161" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E161" s="27"/>
-      <c r="F161" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
+      <c r="B161" s="156"/>
+      <c r="C161" s="131"/>
+      <c r="D161" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161" s="22"/>
+      <c r="F161" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="22"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="163">
+    <row r="162" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="77">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B162" s="129"/>
-      <c r="C162" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E162" s="27"/>
-      <c r="F162" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
+      <c r="B162" s="156"/>
+      <c r="C162" s="104"/>
+      <c r="D162" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E162" s="22"/>
+      <c r="F162" s="104"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="22"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="163">
+    <row r="163" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="77">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B163" s="129"/>
-      <c r="C163" s="132"/>
-      <c r="D163" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E163" s="48"/>
-      <c r="F163" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G163" s="48"/>
-      <c r="H163" s="48"/>
-      <c r="I163" s="48"/>
+      <c r="B163" s="156"/>
+      <c r="C163" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E163" s="22"/>
+      <c r="F163" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="22"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="163">
+    <row r="164" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="77">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B164" s="129"/>
-      <c r="C164" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E164" s="48"/>
-      <c r="F164" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="147"/>
+      <c r="B164" s="156"/>
+      <c r="C164" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E164" s="22"/>
+      <c r="F164" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="22"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="163">
+    <row r="165" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="77">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B165" s="130"/>
-      <c r="C165" s="132"/>
-      <c r="D165" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E165" s="48"/>
-      <c r="F165" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48"/>
-      <c r="I165" s="147"/>
+      <c r="B165" s="156"/>
+      <c r="C165" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E165" s="22"/>
+      <c r="F165" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="163">
+    <row r="166" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="77">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B166" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="C166" s="62"/>
-      <c r="D166" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E166" s="62"/>
-      <c r="F166" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G166" s="62"/>
-      <c r="H166" s="62"/>
-      <c r="I166" s="63"/>
+      <c r="B166" s="156"/>
+      <c r="C166" s="131"/>
+      <c r="D166" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E166" s="22"/>
+      <c r="F166" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="22"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="163">
+    <row r="167" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="77">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B167" s="82"/>
-      <c r="C167" s="65"/>
-      <c r="D167" s="62"/>
-      <c r="E167" s="62"/>
-      <c r="F167" s="62"/>
-      <c r="G167" s="62"/>
-      <c r="H167" s="62"/>
-      <c r="I167" s="63"/>
+      <c r="B167" s="156"/>
+      <c r="C167" s="131"/>
+      <c r="D167" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E167" s="22"/>
+      <c r="F167" s="106"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="22"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="163">
+    <row r="168" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="77">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B168" s="82"/>
-      <c r="C168" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="D168" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E168" s="62"/>
-      <c r="F168" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="G168" s="62"/>
-      <c r="H168" s="62"/>
-      <c r="I168" s="62"/>
+      <c r="B168" s="156"/>
+      <c r="C168" s="104"/>
+      <c r="D168" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E168" s="22"/>
+      <c r="F168" s="107"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
+      <c r="I168" s="22"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="163">
+    <row r="169" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="77">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B169" s="82"/>
-      <c r="C169" s="71"/>
-      <c r="D169" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E169" s="62"/>
-      <c r="F169" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G169" s="62"/>
-      <c r="H169" s="62"/>
-      <c r="I169" s="62"/>
+      <c r="B169" s="156"/>
+      <c r="C169" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E169" s="22"/>
+      <c r="F169" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="22"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="163">
+    <row r="170" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="77">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B170" s="82"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E170" s="62"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="62"/>
-      <c r="H170" s="62"/>
-      <c r="I170" s="62"/>
+      <c r="B170" s="156"/>
+      <c r="C170" s="104"/>
+      <c r="D170" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E170" s="22"/>
+      <c r="F170" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="163">
+    <row r="171" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="77">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B171" s="83"/>
-      <c r="C171" s="72"/>
-      <c r="D171" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E171" s="61"/>
-      <c r="F171" s="72"/>
-      <c r="G171" s="61"/>
-      <c r="H171" s="61"/>
-      <c r="I171" s="61"/>
+      <c r="B171" s="156"/>
+      <c r="C171" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E171" s="22"/>
+      <c r="F171" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="22"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="163">
+    <row r="172" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="77">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B172" s="61"/>
-      <c r="C172" s="61"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="61"/>
-      <c r="F172" s="61"/>
-      <c r="G172" s="61"/>
-      <c r="H172" s="61"/>
-      <c r="I172" s="61"/>
+      <c r="B172" s="156"/>
+      <c r="C172" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E172" s="22"/>
+      <c r="F172" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="22"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="163">
+    <row r="173" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="77">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B173" s="61"/>
-      <c r="C173" s="61"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="61"/>
-      <c r="I173" s="61"/>
+      <c r="B173" s="157"/>
+      <c r="C173" s="104"/>
+      <c r="D173" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E173" s="22"/>
+      <c r="F173" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="22"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="163">
+    <row r="174" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="77">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B174" s="61"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="61"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="61"/>
-      <c r="G174" s="61"/>
-      <c r="H174" s="61"/>
-      <c r="I174" s="61"/>
+      <c r="B174" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="163">
+    <row r="175" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="77">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B175" s="61"/>
-      <c r="C175" s="61"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
+      <c r="B175" s="153"/>
+      <c r="C175" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D175" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="E175" s="24"/>
+      <c r="F175" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G175" s="34"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="163">
+    <row r="176" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="77">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B176" s="61"/>
-      <c r="C176" s="61"/>
-      <c r="D176" s="61"/>
-      <c r="E176" s="61"/>
-      <c r="F176" s="61"/>
-      <c r="G176" s="61"/>
-      <c r="H176" s="61"/>
-      <c r="I176" s="61"/>
+      <c r="B176" s="153"/>
+      <c r="C176" s="130"/>
+      <c r="D176" s="130"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G176" s="33"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
+    <row r="177" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="77">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B177" s="153"/>
+      <c r="C177" s="130"/>
+      <c r="D177" s="130"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G177" s="33"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
+    <row r="178" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="77">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B178" s="153"/>
+      <c r="C178" s="109"/>
+      <c r="D178" s="109"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G178" s="33"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="38"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
+    <row r="179" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="77">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B179" s="153"/>
+      <c r="C179" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
+    <row r="180" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="77">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B180" s="153"/>
+      <c r="C180" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E180" s="26"/>
+      <c r="F180" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="26"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="38"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
+    <row r="181" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="77">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B181" s="153"/>
+      <c r="C181" s="109"/>
+      <c r="D181" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E181" s="26"/>
+      <c r="F181" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G181" s="26"/>
+      <c r="H181" s="26"/>
+      <c r="I181" s="26"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="38"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
+    <row r="182" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="77">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B182" s="153"/>
+      <c r="C182" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E182" s="187"/>
+      <c r="F182" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G182" s="187"/>
+      <c r="H182" s="187"/>
+      <c r="I182" s="187"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="38"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
+    <row r="183" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="77">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B183" s="153"/>
+      <c r="C183" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G183" s="26"/>
+      <c r="H183" s="26"/>
+      <c r="I183" s="26"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
+    <row r="184" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="77">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B184" s="154"/>
+      <c r="C184" s="109"/>
+      <c r="D184" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G184" s="26"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="26"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
+    <row r="185" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="77">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B185" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="38"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
+    <row r="186" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="77">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B186" s="147"/>
+      <c r="C186" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E186" s="27"/>
+      <c r="F186" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
+    <row r="187" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="77">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B187" s="147"/>
+      <c r="C187" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E187" s="27"/>
+      <c r="F187" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="38"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
+    <row r="188" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="77">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B188" s="147"/>
+      <c r="C188" s="142"/>
+      <c r="D188" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E188" s="27"/>
+      <c r="F188" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="38"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
+    <row r="189" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="77">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B189" s="147"/>
+      <c r="C189" s="141" t="s">
+        <v>118</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E189" s="27"/>
+      <c r="F189" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="38"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
+    <row r="190" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="77">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B190" s="147"/>
+      <c r="C190" s="142"/>
+      <c r="D190" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E190" s="46"/>
+      <c r="F190" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="46"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="38"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
+    <row r="191" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="77">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B191" s="147"/>
+      <c r="C191" s="186" t="s">
+        <v>237</v>
+      </c>
+      <c r="D191" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E191" s="46"/>
+      <c r="F191" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G191" s="46"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="46"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="38"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
+    <row r="192" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="77">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B192" s="147"/>
+      <c r="C192" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E192" s="46"/>
+      <c r="F192" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G192" s="46"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="70"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
+    <row r="193" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="77">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B193" s="148"/>
+      <c r="C193" s="142"/>
+      <c r="D193" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E193" s="46"/>
+      <c r="F193" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G193" s="46"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="70"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
+    <row r="194" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="77">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B194" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C194" s="58"/>
+      <c r="D194" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E194" s="58"/>
+      <c r="F194" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="G194" s="58"/>
+      <c r="H194" s="58"/>
+      <c r="I194" s="59"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
+    <row r="195" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="77">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B195" s="94"/>
+      <c r="C195" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D195" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G195" s="58"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="58"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
+    <row r="196" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="77">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B196" s="94"/>
+      <c r="C196" s="86"/>
+      <c r="D196" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E196" s="58"/>
+      <c r="F196" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="58"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
+    <row r="197" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="77">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B197" s="94"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E197" s="58"/>
+      <c r="F197" s="86"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="58"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
+    <row r="198" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="77">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B198" s="94"/>
+      <c r="C198" s="87"/>
+      <c r="D198" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E198" s="57"/>
+      <c r="F198" s="87"/>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
+    <row r="199" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="77">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B199" s="94"/>
+      <c r="C199" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D199" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E199" s="57"/>
+      <c r="F199" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
+    <row r="200" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="77">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B200" s="95"/>
+      <c r="C200" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D200" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E200" s="58"/>
+      <c r="F200" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G200" s="58"/>
+      <c r="H200" s="58"/>
+      <c r="I200" s="58"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
+    <row r="201" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="77">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B201" s="57"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="57"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
+    <row r="202" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="77">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B202" s="57"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="57"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
+    <row r="203" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="77">
+        <f t="shared" ref="A143:A203" si="3">ROW(A193)</f>
+        <v>193</v>
+      </c>
+      <c r="B203" s="57"/>
+      <c r="C203" s="57"/>
+      <c r="D203" s="57"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="57"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -6267,7 +6678,7 @@
       <c r="N203" s="1"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+      <c r="A204" s="37"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -6283,7 +6694,7 @@
       <c r="N204" s="1"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
+      <c r="A205" s="37"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -6299,7 +6710,7 @@
       <c r="N205" s="1"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+      <c r="A206" s="37"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -6315,7 +6726,7 @@
       <c r="N206" s="1"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
+      <c r="A207" s="37"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -6331,7 +6742,7 @@
       <c r="N207" s="1"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
+      <c r="A208" s="37"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -6347,7 +6758,7 @@
       <c r="N208" s="1"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+      <c r="A209" s="37"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -6363,7 +6774,7 @@
       <c r="N209" s="1"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
+      <c r="A210" s="37"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -6379,7 +6790,7 @@
       <c r="N210" s="1"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
+      <c r="A211" s="37"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -6395,7 +6806,7 @@
       <c r="N211" s="1"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
+      <c r="A212" s="37"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -6411,7 +6822,7 @@
       <c r="N212" s="1"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
+      <c r="A213" s="37"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6427,7 +6838,7 @@
       <c r="N213" s="1"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
+      <c r="A214" s="37"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -6443,7 +6854,7 @@
       <c r="N214" s="1"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
+      <c r="A215" s="37"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -6459,7 +6870,7 @@
       <c r="N215" s="1"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
+      <c r="A216" s="37"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -6475,7 +6886,7 @@
       <c r="N216" s="1"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
+      <c r="A217" s="37"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -6491,7 +6902,7 @@
       <c r="N217" s="1"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
+      <c r="A218" s="37"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -6507,7 +6918,7 @@
       <c r="N218" s="1"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
+      <c r="A219" s="37"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -6826,79 +7237,516 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
     </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="B148:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B134:B147"/>
-    <mergeCell ref="B122:B127"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B68:B79"/>
-    <mergeCell ref="B158:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="C25:C33"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F82:F89"/>
-    <mergeCell ref="C81:C89"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C53:C54"/>
+  <mergeCells count="76">
+    <mergeCell ref="B56:B72"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="B39:B55"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B21:B38"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="B174:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="B159:B173"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="B100:B115"/>
+    <mergeCell ref="B87:B99"/>
+    <mergeCell ref="B127:B140"/>
+    <mergeCell ref="B116:B126"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B185:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C56:C57"/>
     <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="C22:C29"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B41:B56"/>
-    <mergeCell ref="B11:B40"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B80:B92"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="B95:B104"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="D175:D178"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="B194:B200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test_senaryoları.xlsx
+++ b/test_senaryoları.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ersin\Desktop\Ersin İçen HR210046\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E466A2-BCE6-4FB1-8E39-794FF4E27D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B150940-C12E-4EDC-8ED7-F84510F38EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{21F89864-9DF5-46CC-AD43-FC4DEE93CEA9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{21F89864-9DF5-46CC-AD43-FC4DEE93CEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -873,7 +873,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,12 +937,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,7 +1152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1289,161 +1283,360 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,120 +1646,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1576,121 +1655,30 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,28 +2010,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E873CFB-3A35-48D3-B473-822AB0BD7015}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="58.140625" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="126"/>
+      <c r="D1" s="149"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
@@ -2093,47 +2081,47 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77">
-        <f>ROW(A1)</f>
+      <c r="A11" s="73">
+        <f t="shared" ref="A11:A20" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="74" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="74" t="s">
         <v>216</v>
       </c>
       <c r="G11" s="3"/>
@@ -2146,12 +2134,12 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77">
-        <f t="shared" ref="A12:A75" si="0">ROW(A2)</f>
+      <c r="A12" s="73">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="78" t="s">
+      <c r="B12" s="120"/>
+      <c r="C12" s="74" t="s">
         <v>105</v>
       </c>
       <c r="D12" s="35" t="s">
@@ -2171,11 +2159,11 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77">
+      <c r="A13" s="73">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="3" t="s">
         <v>112</v>
       </c>
@@ -2196,12 +2184,12 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77">
+      <c r="A14" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="159" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2221,12 +2209,12 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77">
+      <c r="A15" s="73">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="117"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="3" t="s">
         <v>129</v>
       </c>
@@ -2244,12 +2232,12 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77">
+      <c r="A16" s="73">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="116" t="s">
+      <c r="B16" s="120"/>
+      <c r="C16" s="159" t="s">
         <v>187</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2269,12 +2257,12 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77">
+      <c r="A17" s="73">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="3" t="s">
         <v>190</v>
       </c>
@@ -2292,11 +2280,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77">
+      <c r="A18" s="73">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="122"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="30" t="s">
         <v>131</v>
       </c>
@@ -2317,11 +2305,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77">
+      <c r="A19" s="73">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="122"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="3" t="s">
         <v>133</v>
       </c>
@@ -2342,12 +2330,12 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77">
+      <c r="A20" s="73">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="78" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="74" t="s">
         <v>234</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2367,19 +2355,19 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77">
-        <f t="shared" si="0"/>
+      <c r="A21" s="73">
+        <f t="shared" ref="A21:A75" si="1">ROW(A11)</f>
         <v>11</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="80"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="165" t="s">
+      <c r="F21" s="81" t="s">
         <v>220</v>
       </c>
       <c r="G21" s="16"/>
@@ -2392,19 +2380,19 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="77">
-        <f t="shared" si="0"/>
+      <c r="A22" s="73">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="95"/>
+      <c r="C22" s="111" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="167" t="s">
+      <c r="F22" s="103" t="s">
         <v>221</v>
       </c>
       <c r="G22" s="16"/>
@@ -2417,17 +2405,17 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77">
-        <f t="shared" si="0"/>
+      <c r="A23" s="73">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="128"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="166"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -2438,17 +2426,17 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77">
-        <f t="shared" si="0"/>
+      <c r="A24" s="73">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="128"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="148"/>
       <c r="D24" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="111" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="16"/>
@@ -2461,17 +2449,17 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77">
-        <f t="shared" si="0"/>
+      <c r="A25" s="73">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="128"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="148"/>
       <c r="D25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="128"/>
+      <c r="F25" s="148"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -2482,17 +2470,17 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77">
-        <f t="shared" si="0"/>
+      <c r="A26" s="73">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="128"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="148"/>
       <c r="D26" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="128"/>
+      <c r="F26" s="148"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -2503,17 +2491,17 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77">
-        <f t="shared" si="0"/>
+      <c r="A27" s="73">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="128"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="128"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -2524,17 +2512,17 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77">
-        <f t="shared" si="0"/>
+      <c r="A28" s="73">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="128"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="148"/>
       <c r="D28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="128"/>
+      <c r="F28" s="148"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -2545,17 +2533,17 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77">
-        <f t="shared" si="0"/>
+      <c r="A29" s="73">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="129"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="129"/>
+      <c r="F29" s="112"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -2566,19 +2554,19 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77">
-        <f t="shared" si="0"/>
+      <c r="A30" s="73">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="127" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="111" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="77" t="s">
         <v>124</v>
       </c>
       <c r="G30" s="16"/>
@@ -2591,17 +2579,17 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77">
-        <f t="shared" si="0"/>
+      <c r="A31" s="73">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="129"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="77" t="s">
         <v>125</v>
       </c>
       <c r="G31" s="16"/>
@@ -2614,19 +2602,19 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77">
-        <f t="shared" si="0"/>
+      <c r="A32" s="73">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="127" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="111" t="s">
         <v>217</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>230</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="165" t="s">
+      <c r="F32" s="81" t="s">
         <v>231</v>
       </c>
       <c r="G32" s="16"/>
@@ -2639,17 +2627,17 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77">
-        <f t="shared" si="0"/>
+      <c r="A33" s="73">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="129"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="16" t="s">
         <v>232</v>
       </c>
       <c r="E33" s="16"/>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="77" t="s">
         <v>233</v>
       </c>
       <c r="G33" s="16"/>
@@ -2662,12 +2650,12 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77">
-        <f t="shared" si="0"/>
+      <c r="A34" s="73">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="127" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="111" t="s">
         <v>147</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -2687,12 +2675,12 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77">
-        <f t="shared" si="0"/>
+      <c r="A35" s="73">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="112"/>
       <c r="D35" s="16" t="s">
         <v>20</v>
       </c>
@@ -2710,12 +2698,12 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77">
-        <f t="shared" si="0"/>
+      <c r="A36" s="73">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="127" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="111" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -2735,12 +2723,12 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77">
-        <f t="shared" si="0"/>
+      <c r="A37" s="73">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="129"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="16" t="s">
         <v>20</v>
       </c>
@@ -2758,19 +2746,19 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="77">
-        <f t="shared" si="0"/>
+      <c r="A38" s="73">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="80" t="s">
+      <c r="B38" s="96"/>
+      <c r="C38" s="76" t="s">
         <v>105</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>65</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="77" t="s">
         <v>218</v>
       </c>
       <c r="G38" s="16"/>
@@ -2783,24 +2771,24 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77">
-        <f t="shared" si="0"/>
+      <c r="A39" s="73">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="169"/>
-      <c r="D39" s="170" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="170"/>
-      <c r="F39" s="171" t="s">
+      <c r="E39" s="83"/>
+      <c r="F39" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2808,24 +2796,24 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="77">
-        <f t="shared" si="0"/>
+      <c r="A40" s="73">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B40" s="172"/>
-      <c r="C40" s="175" t="s">
+      <c r="B40" s="109"/>
+      <c r="C40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="174" t="s">
+      <c r="D40" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="170"/>
-      <c r="F40" s="174" t="s">
+      <c r="E40" s="83"/>
+      <c r="F40" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2833,22 +2821,22 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77">
-        <f t="shared" si="0"/>
+      <c r="A41" s="73">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="170" t="s">
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="170"/>
-      <c r="F41" s="175" t="s">
+      <c r="E41" s="83"/>
+      <c r="F41" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2856,20 +2844,20 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="77">
-        <f t="shared" si="0"/>
+      <c r="A42" s="73">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="170" t="s">
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="170"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2877,20 +2865,20 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77">
-        <f t="shared" si="0"/>
+      <c r="A43" s="73">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="174" t="s">
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="170"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2898,20 +2886,20 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77">
-        <f t="shared" si="0"/>
+      <c r="A44" s="73">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="170" t="s">
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="170"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2919,20 +2907,20 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77">
-        <f t="shared" si="0"/>
+      <c r="A45" s="73">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="170" t="s">
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="170"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2940,20 +2928,20 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="77">
-        <f t="shared" si="0"/>
+      <c r="A46" s="73">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B46" s="172"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="170" t="s">
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="170"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2961,20 +2949,20 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77">
-        <f t="shared" si="0"/>
+      <c r="A47" s="73">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B47" s="172"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="170" t="s">
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="170"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2982,20 +2970,20 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="77">
-        <f t="shared" si="0"/>
+      <c r="A48" s="73">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B48" s="172"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="170" t="s">
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="170"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3003,22 +2991,22 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="77">
-        <f t="shared" si="0"/>
+      <c r="A49" s="73">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B49" s="172"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="170" t="s">
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="170"/>
-      <c r="F49" s="178" t="s">
+      <c r="E49" s="83"/>
+      <c r="F49" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3026,22 +3014,22 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="77">
-        <f t="shared" si="0"/>
+      <c r="A50" s="73">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B50" s="172"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="170" t="s">
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="170"/>
-      <c r="F50" s="178" t="s">
+      <c r="E50" s="83"/>
+      <c r="F50" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3049,22 +3037,22 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="77">
-        <f t="shared" si="0"/>
+      <c r="A51" s="73">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B51" s="172"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="174" t="s">
+      <c r="B51" s="109"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="E51" s="170"/>
-      <c r="F51" s="178" t="s">
+      <c r="E51" s="83"/>
+      <c r="F51" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3072,24 +3060,24 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="77">
-        <f t="shared" si="0"/>
+      <c r="A52" s="73">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B52" s="172"/>
-      <c r="C52" s="175" t="s">
+      <c r="B52" s="109"/>
+      <c r="C52" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="170" t="s">
+      <c r="D52" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170" t="s">
+      <c r="E52" s="83"/>
+      <c r="F52" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3097,22 +3085,22 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="77">
-        <f t="shared" si="0"/>
+      <c r="A53" s="73">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B53" s="172"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="170" t="s">
+      <c r="B53" s="109"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170" t="s">
+      <c r="E53" s="83"/>
+      <c r="F53" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3120,24 +3108,24 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="77">
-        <f t="shared" si="0"/>
+      <c r="A54" s="73">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B54" s="172"/>
-      <c r="C54" s="176" t="s">
+      <c r="B54" s="109"/>
+      <c r="C54" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="170" t="s">
+      <c r="D54" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170" t="s">
+      <c r="E54" s="83"/>
+      <c r="F54" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3145,22 +3133,22 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="77">
-        <f t="shared" si="0"/>
+      <c r="A55" s="73">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B55" s="173"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="170" t="s">
+      <c r="B55" s="110"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170" t="s">
+      <c r="E55" s="83"/>
+      <c r="F55" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3168,14 +3156,14 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="77">
-        <f t="shared" si="0"/>
+      <c r="A56" s="73">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="161" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -3195,12 +3183,12 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="77">
-        <f t="shared" si="0"/>
+      <c r="A57" s="73">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B57" s="119"/>
-      <c r="C57" s="136"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="162"/>
       <c r="D57" s="6" t="s">
         <v>162</v>
       </c>
@@ -3218,11 +3206,11 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="77">
-        <f t="shared" si="0"/>
+      <c r="A58" s="73">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B58" s="119"/>
+      <c r="B58" s="101"/>
       <c r="C58" s="6" t="s">
         <v>29</v>
       </c>
@@ -3243,12 +3231,12 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="77">
-        <f t="shared" si="0"/>
+      <c r="A59" s="73">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="135" t="s">
+      <c r="B59" s="101"/>
+      <c r="C59" s="161" t="s">
         <v>118</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -3268,12 +3256,12 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="77">
-        <f t="shared" si="0"/>
+      <c r="A60" s="73">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B60" s="119"/>
-      <c r="C60" s="136"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="162"/>
       <c r="D60" s="6" t="s">
         <v>129</v>
       </c>
@@ -3291,11 +3279,11 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="77">
-        <f t="shared" si="0"/>
+      <c r="A61" s="73">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B61" s="119"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="6" t="s">
         <v>31</v>
       </c>
@@ -3316,11 +3304,11 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="77">
-        <f t="shared" si="0"/>
+      <c r="A62" s="73">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B62" s="119"/>
+      <c r="B62" s="101"/>
       <c r="C62" s="6" t="s">
         <v>183</v>
       </c>
@@ -3341,11 +3329,11 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="77">
-        <f t="shared" si="0"/>
+      <c r="A63" s="73">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B63" s="119"/>
+      <c r="B63" s="101"/>
       <c r="C63" s="7" t="s">
         <v>33</v>
       </c>
@@ -3366,11 +3354,11 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="77">
-        <f t="shared" si="0"/>
+      <c r="A64" s="73">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B64" s="119"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="6" t="s">
         <v>165</v>
       </c>
@@ -3391,11 +3379,11 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="77">
-        <f t="shared" si="0"/>
+      <c r="A65" s="73">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B65" s="119"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="6" t="s">
         <v>166</v>
       </c>
@@ -3416,12 +3404,12 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="77">
-        <f t="shared" si="0"/>
+      <c r="A66" s="73">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B66" s="119"/>
-      <c r="C66" s="140" t="s">
+      <c r="B66" s="101"/>
+      <c r="C66" s="146" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -3441,12 +3429,12 @@
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="77">
-        <f t="shared" si="0"/>
+      <c r="A67" s="73">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B67" s="119"/>
-      <c r="C67" s="140"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="146"/>
       <c r="D67" s="4" t="s">
         <v>37</v>
       </c>
@@ -3464,12 +3452,12 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="77">
-        <f t="shared" si="0"/>
+      <c r="A68" s="73">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B68" s="119"/>
-      <c r="C68" s="135" t="s">
+      <c r="B68" s="101"/>
+      <c r="C68" s="161" t="s">
         <v>187</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -3489,12 +3477,12 @@
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="77">
-        <f t="shared" si="0"/>
+      <c r="A69" s="73">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B69" s="119"/>
-      <c r="C69" s="136"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="162"/>
       <c r="D69" s="4" t="s">
         <v>190</v>
       </c>
@@ -3512,11 +3500,11 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="77">
-        <f t="shared" si="0"/>
+      <c r="A70" s="73">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B70" s="119"/>
+      <c r="B70" s="101"/>
       <c r="C70" s="6" t="s">
         <v>131</v>
       </c>
@@ -3537,11 +3525,11 @@
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="77">
-        <f t="shared" si="0"/>
+      <c r="A71" s="73">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B71" s="119"/>
+      <c r="B71" s="101"/>
       <c r="C71" s="6" t="s">
         <v>133</v>
       </c>
@@ -3562,11 +3550,11 @@
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="77">
-        <f t="shared" si="0"/>
+      <c r="A72" s="73">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B72" s="120"/>
+      <c r="B72" s="102"/>
       <c r="C72" s="4" t="s">
         <v>234</v>
       </c>
@@ -3574,7 +3562,7 @@
         <v>235</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="184" t="s">
+      <c r="F72" s="91" t="s">
         <v>236</v>
       </c>
       <c r="G72" s="6"/>
@@ -3587,11 +3575,11 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="77">
-        <f t="shared" si="0"/>
+      <c r="A73" s="73">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B73" s="149" t="s">
+      <c r="B73" s="97" t="s">
         <v>45</v>
       </c>
       <c r="C73" s="9"/>
@@ -3612,12 +3600,12 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="77">
-        <f t="shared" si="0"/>
+      <c r="A74" s="73">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B74" s="150"/>
-      <c r="C74" s="88" t="s">
+      <c r="B74" s="98"/>
+      <c r="C74" s="113" t="s">
         <v>48</v>
       </c>
       <c r="D74" s="10" t="s">
@@ -3637,12 +3625,12 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="77">
-        <f t="shared" si="0"/>
+      <c r="A75" s="73">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B75" s="150"/>
-      <c r="C75" s="89"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="114"/>
       <c r="D75" s="10" t="s">
         <v>50</v>
       </c>
@@ -3660,11 +3648,11 @@
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="77">
-        <f t="shared" ref="A76:A142" si="1">ROW(A66)</f>
+      <c r="A76" s="73">
+        <f t="shared" ref="A76:A142" si="2">ROW(A66)</f>
         <v>66</v>
       </c>
-      <c r="B76" s="150"/>
+      <c r="B76" s="98"/>
       <c r="C76" s="10" t="s">
         <v>52</v>
       </c>
@@ -3685,12 +3673,12 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="77">
-        <f t="shared" si="1"/>
+      <c r="A77" s="73">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B77" s="150"/>
-      <c r="C77" s="88" t="s">
+      <c r="B77" s="98"/>
+      <c r="C77" s="113" t="s">
         <v>82</v>
       </c>
       <c r="D77" s="29" t="s">
@@ -3710,12 +3698,12 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="77">
-        <f t="shared" si="1"/>
+      <c r="A78" s="73">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B78" s="150"/>
-      <c r="C78" s="99"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="155"/>
       <c r="D78" s="29" t="s">
         <v>212</v>
       </c>
@@ -3733,12 +3721,12 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="77">
-        <f t="shared" si="1"/>
+      <c r="A79" s="73">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B79" s="150"/>
-      <c r="C79" s="89"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="29" t="s">
         <v>83</v>
       </c>
@@ -3756,12 +3744,12 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="77">
-        <f t="shared" si="1"/>
+      <c r="A80" s="73">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B80" s="150"/>
-      <c r="C80" s="88" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="113" t="s">
         <v>118</v>
       </c>
       <c r="D80" s="29" t="s">
@@ -3781,12 +3769,12 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="77">
-        <f t="shared" si="1"/>
+      <c r="A81" s="73">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B81" s="150"/>
-      <c r="C81" s="89"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="114"/>
       <c r="D81" s="29" t="s">
         <v>129</v>
       </c>
@@ -3804,12 +3792,12 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="77">
-        <f t="shared" si="1"/>
+      <c r="A82" s="73">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B82" s="150"/>
-      <c r="C82" s="88" t="s">
+      <c r="B82" s="98"/>
+      <c r="C82" s="113" t="s">
         <v>187</v>
       </c>
       <c r="D82" s="29" t="s">
@@ -3829,12 +3817,12 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="77">
-        <f t="shared" si="1"/>
+      <c r="A83" s="73">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B83" s="150"/>
-      <c r="C83" s="89"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="114"/>
       <c r="D83" s="29" t="s">
         <v>190</v>
       </c>
@@ -3852,11 +3840,11 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="77">
-        <f t="shared" si="1"/>
+      <c r="A84" s="73">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B84" s="150"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="29" t="s">
         <v>234</v>
       </c>
@@ -3864,7 +3852,7 @@
         <v>235</v>
       </c>
       <c r="E84" s="10"/>
-      <c r="F84" s="55" t="s">
+      <c r="F84" s="52" t="s">
         <v>236</v>
       </c>
       <c r="G84" s="10"/>
@@ -3877,11 +3865,11 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="77">
-        <f t="shared" si="1"/>
+      <c r="A85" s="73">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B85" s="150"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="29" t="s">
         <v>197</v>
       </c>
@@ -3889,7 +3877,7 @@
         <v>54</v>
       </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="55" t="s">
+      <c r="F85" s="52" t="s">
         <v>243</v>
       </c>
       <c r="G85" s="10"/>
@@ -3902,11 +3890,11 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="77">
-        <f t="shared" si="1"/>
+      <c r="A86" s="73">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B86" s="151"/>
+      <c r="B86" s="99"/>
       <c r="C86" s="29" t="s">
         <v>242</v>
       </c>
@@ -3914,7 +3902,7 @@
         <v>54</v>
       </c>
       <c r="E86" s="10"/>
-      <c r="F86" s="55" t="s">
+      <c r="F86" s="52" t="s">
         <v>244</v>
       </c>
       <c r="G86" s="10"/>
@@ -3927,24 +3915,24 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="77">
-        <f t="shared" si="1"/>
+      <c r="A87" s="73">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B87" s="143" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="66" t="s">
+      <c r="C87" s="63"/>
+      <c r="D87" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="68" t="s">
+      <c r="E87" s="63"/>
+      <c r="F87" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -3952,24 +3940,24 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="77">
-        <f t="shared" si="1"/>
+      <c r="A88" s="73">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B88" s="144"/>
-      <c r="C88" s="137" t="s">
+      <c r="C88" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="66" t="s">
+      <c r="D88" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="68" t="s">
+      <c r="E88" s="63"/>
+      <c r="F88" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -3977,22 +3965,22 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="77">
-        <f t="shared" si="1"/>
+      <c r="A89" s="73">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B89" s="144"/>
-      <c r="C89" s="139"/>
-      <c r="D89" s="66" t="s">
+      <c r="C89" s="116"/>
+      <c r="D89" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="68" t="s">
+      <c r="E89" s="63"/>
+      <c r="F89" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -4000,24 +3988,24 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="77">
-        <f t="shared" si="1"/>
+      <c r="A90" s="73">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B90" s="144"/>
-      <c r="C90" s="137" t="s">
+      <c r="C90" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="66" t="s">
+      <c r="D90" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="E90" s="67"/>
-      <c r="F90" s="68" t="s">
+      <c r="E90" s="63"/>
+      <c r="F90" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -4025,22 +4013,22 @@
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="77">
-        <f t="shared" si="1"/>
+      <c r="A91" s="73">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B91" s="144"/>
-      <c r="C91" s="139"/>
-      <c r="D91" s="66" t="s">
+      <c r="C91" s="116"/>
+      <c r="D91" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="E91" s="67"/>
-      <c r="F91" s="68" t="s">
+      <c r="E91" s="63"/>
+      <c r="F91" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -4048,24 +4036,24 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="77">
-        <f t="shared" si="1"/>
+      <c r="A92" s="73">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B92" s="144"/>
-      <c r="C92" s="137" t="s">
+      <c r="C92" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="D92" s="66" t="s">
+      <c r="D92" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67" t="s">
+      <c r="E92" s="63"/>
+      <c r="F92" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -4073,22 +4061,22 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="77">
-        <f t="shared" si="1"/>
+      <c r="A93" s="73">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B93" s="144"/>
-      <c r="C93" s="139"/>
-      <c r="D93" s="66" t="s">
+      <c r="C93" s="116"/>
+      <c r="D93" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67" t="s">
+      <c r="E93" s="63"/>
+      <c r="F93" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -4096,24 +4084,24 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="77">
-        <f t="shared" si="1"/>
+      <c r="A94" s="73">
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B94" s="144"/>
-      <c r="C94" s="65" t="s">
+      <c r="C94" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="D94" s="66" t="s">
+      <c r="D94" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67" t="s">
+      <c r="E94" s="63"/>
+      <c r="F94" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="63"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -4121,24 +4109,24 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="77">
-        <f t="shared" si="1"/>
+      <c r="A95" s="73">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B95" s="144"/>
-      <c r="C95" s="137" t="s">
+      <c r="C95" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="69" t="s">
+      <c r="D95" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67" t="s">
+      <c r="E95" s="63"/>
+      <c r="F95" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="63"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -4146,22 +4134,22 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="77">
-        <f t="shared" si="1"/>
+      <c r="A96" s="73">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B96" s="144"/>
-      <c r="C96" s="138"/>
-      <c r="D96" s="66" t="s">
+      <c r="C96" s="147"/>
+      <c r="D96" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="67"/>
-      <c r="F96" s="137" t="s">
+      <c r="E96" s="63"/>
+      <c r="F96" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -4169,20 +4157,20 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="77">
-        <f t="shared" si="1"/>
+      <c r="A97" s="73">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B97" s="144"/>
-      <c r="C97" s="138"/>
-      <c r="D97" s="66" t="s">
+      <c r="C97" s="147"/>
+      <c r="D97" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="E97" s="67"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="147"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="63"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -4190,20 +4178,20 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="77">
-        <f t="shared" si="1"/>
+      <c r="A98" s="73">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B98" s="144"/>
-      <c r="C98" s="139"/>
-      <c r="D98" s="66" t="s">
+      <c r="C98" s="116"/>
+      <c r="D98" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E98" s="67"/>
-      <c r="F98" s="139"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -4211,24 +4199,24 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="77">
-        <f t="shared" si="1"/>
+      <c r="A99" s="73">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B99" s="145"/>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="D99" s="67" t="s">
+      <c r="D99" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="67"/>
-      <c r="F99" s="183" t="s">
+      <c r="E99" s="63"/>
+      <c r="F99" s="90" t="s">
         <v>236</v>
       </c>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -4236,11 +4224,11 @@
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="77">
-        <f t="shared" si="1"/>
+      <c r="A100" s="73">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B100" s="124" t="s">
+      <c r="B100" s="140" t="s">
         <v>55</v>
       </c>
       <c r="C100" s="11"/>
@@ -4261,12 +4249,12 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="77">
-        <f t="shared" si="1"/>
+      <c r="A101" s="73">
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B101" s="125"/>
-      <c r="C101" s="110" t="s">
+      <c r="B101" s="141"/>
+      <c r="C101" s="156" t="s">
         <v>137</v>
       </c>
       <c r="D101" s="14" t="s">
@@ -4286,17 +4274,17 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="77">
-        <f t="shared" si="1"/>
+      <c r="A102" s="73">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B102" s="125"/>
-      <c r="C102" s="112"/>
+      <c r="B102" s="141"/>
+      <c r="C102" s="157"/>
       <c r="D102" s="13" t="s">
         <v>85</v>
       </c>
       <c r="E102" s="13"/>
-      <c r="F102" s="110" t="s">
+      <c r="F102" s="156" t="s">
         <v>59</v>
       </c>
       <c r="G102" s="13"/>
@@ -4309,17 +4297,17 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="77">
-        <f t="shared" si="1"/>
+      <c r="A103" s="73">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B103" s="125"/>
-      <c r="C103" s="112"/>
+      <c r="B103" s="141"/>
+      <c r="C103" s="157"/>
       <c r="D103" s="13" t="s">
         <v>86</v>
       </c>
       <c r="E103" s="13"/>
-      <c r="F103" s="112"/>
+      <c r="F103" s="157"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
@@ -4330,17 +4318,17 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="77">
-        <f t="shared" si="1"/>
+      <c r="A104" s="73">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B104" s="125"/>
-      <c r="C104" s="112"/>
+      <c r="B104" s="141"/>
+      <c r="C104" s="157"/>
       <c r="D104" s="13" t="s">
         <v>87</v>
       </c>
       <c r="E104" s="13"/>
-      <c r="F104" s="112"/>
+      <c r="F104" s="157"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
@@ -4351,17 +4339,17 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="77">
-        <f t="shared" si="1"/>
+      <c r="A105" s="73">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B105" s="125"/>
-      <c r="C105" s="112"/>
+      <c r="B105" s="141"/>
+      <c r="C105" s="157"/>
       <c r="D105" s="13" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="13"/>
-      <c r="F105" s="112"/>
+      <c r="F105" s="157"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
@@ -4372,17 +4360,17 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="77">
-        <f t="shared" si="1"/>
+      <c r="A106" s="73">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B106" s="125"/>
-      <c r="C106" s="112"/>
+      <c r="B106" s="141"/>
+      <c r="C106" s="157"/>
       <c r="D106" s="13" t="s">
         <v>195</v>
       </c>
       <c r="E106" s="13"/>
-      <c r="F106" s="112"/>
+      <c r="F106" s="157"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
@@ -4393,17 +4381,17 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="77">
-        <f t="shared" si="1"/>
+      <c r="A107" s="73">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B107" s="125"/>
-      <c r="C107" s="112"/>
+      <c r="B107" s="141"/>
+      <c r="C107" s="157"/>
       <c r="D107" s="13" t="s">
         <v>196</v>
       </c>
       <c r="E107" s="13"/>
-      <c r="F107" s="112"/>
+      <c r="F107" s="157"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
@@ -4414,17 +4402,17 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="77">
-        <f t="shared" si="1"/>
+      <c r="A108" s="73">
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B108" s="125"/>
-      <c r="C108" s="112"/>
+      <c r="B108" s="141"/>
+      <c r="C108" s="157"/>
       <c r="D108" s="13" t="s">
         <v>89</v>
       </c>
       <c r="E108" s="13"/>
-      <c r="F108" s="112"/>
+      <c r="F108" s="157"/>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
@@ -4435,17 +4423,17 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="77">
-        <f t="shared" si="1"/>
+      <c r="A109" s="73">
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B109" s="125"/>
-      <c r="C109" s="111"/>
+      <c r="B109" s="141"/>
+      <c r="C109" s="158"/>
       <c r="D109" s="13" t="s">
         <v>90</v>
       </c>
       <c r="E109" s="13"/>
-      <c r="F109" s="111"/>
+      <c r="F109" s="158"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
@@ -4456,12 +4444,12 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="77">
-        <f t="shared" si="1"/>
+      <c r="A110" s="73">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="110" t="s">
+      <c r="B110" s="141"/>
+      <c r="C110" s="156" t="s">
         <v>118</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -4481,12 +4469,12 @@
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="77">
-        <f t="shared" si="1"/>
+      <c r="A111" s="73">
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B111" s="125"/>
-      <c r="C111" s="111"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="158"/>
       <c r="D111" s="13" t="s">
         <v>129</v>
       </c>
@@ -4504,12 +4492,12 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="77">
-        <f t="shared" si="1"/>
+      <c r="A112" s="73">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B112" s="125"/>
-      <c r="C112" s="110" t="s">
+      <c r="B112" s="141"/>
+      <c r="C112" s="156" t="s">
         <v>62</v>
       </c>
       <c r="D112" s="14" t="s">
@@ -4529,17 +4517,17 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="77">
-        <f t="shared" si="1"/>
+      <c r="A113" s="73">
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B113" s="125"/>
-      <c r="C113" s="112"/>
+      <c r="B113" s="141"/>
+      <c r="C113" s="157"/>
       <c r="D113" s="14" t="s">
         <v>86</v>
       </c>
       <c r="E113" s="13"/>
-      <c r="F113" s="110" t="s">
+      <c r="F113" s="156" t="s">
         <v>59</v>
       </c>
       <c r="G113" s="13"/>
@@ -4552,17 +4540,17 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="77">
-        <f t="shared" si="1"/>
+      <c r="A114" s="73">
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B114" s="125"/>
-      <c r="C114" s="111"/>
+      <c r="B114" s="141"/>
+      <c r="C114" s="158"/>
       <c r="D114" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E114" s="13"/>
-      <c r="F114" s="111"/>
+      <c r="F114" s="158"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
@@ -4572,12 +4560,12 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="77">
-        <f t="shared" si="1"/>
+    <row r="115" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="73">
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B115" s="182"/>
+      <c r="B115" s="142"/>
       <c r="C115" s="13" t="s">
         <v>234</v>
       </c>
@@ -4597,121 +4585,121 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="77">
-        <f t="shared" si="1"/>
+    <row r="116" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="73">
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B116" s="90" t="s">
+      <c r="B116" s="178" t="s">
         <v>171</v>
       </c>
-      <c r="C116" s="52"/>
-      <c r="D116" s="53" t="s">
+      <c r="C116" s="179"/>
+      <c r="D116" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="E116" s="54"/>
-      <c r="F116" s="52" t="s">
+      <c r="E116" s="88"/>
+      <c r="F116" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
+      <c r="G116" s="88"/>
+      <c r="H116" s="88"/>
+      <c r="I116" s="88"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="77">
-        <f t="shared" si="1"/>
+    <row r="117" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="73">
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B117" s="91"/>
-      <c r="C117" s="96" t="s">
+      <c r="B117" s="181"/>
+      <c r="C117" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="D117" s="53" t="s">
+      <c r="D117" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="E117" s="54"/>
-      <c r="F117" s="52" t="s">
+      <c r="E117" s="88"/>
+      <c r="F117" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="G117" s="54"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="54"/>
+      <c r="G117" s="88"/>
+      <c r="H117" s="88"/>
+      <c r="I117" s="88"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="77">
-        <f t="shared" si="1"/>
+    <row r="118" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="73">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B118" s="91"/>
-      <c r="C118" s="98"/>
-      <c r="D118" s="53" t="s">
+      <c r="B118" s="181"/>
+      <c r="C118" s="183"/>
+      <c r="D118" s="180" t="s">
         <v>212</v>
       </c>
-      <c r="E118" s="54"/>
-      <c r="F118" s="52" t="s">
+      <c r="E118" s="88"/>
+      <c r="F118" s="179" t="s">
         <v>211</v>
       </c>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
+      <c r="G118" s="88"/>
+      <c r="H118" s="88"/>
+      <c r="I118" s="88"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="77">
-        <f t="shared" si="1"/>
+    <row r="119" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="73">
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B119" s="91"/>
-      <c r="C119" s="96" t="s">
+      <c r="B119" s="181"/>
+      <c r="C119" s="182" t="s">
         <v>187</v>
       </c>
-      <c r="D119" s="53" t="s">
+      <c r="D119" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="E119" s="54"/>
-      <c r="F119" s="52" t="s">
+      <c r="E119" s="88"/>
+      <c r="F119" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="77">
-        <f t="shared" si="1"/>
+    <row r="120" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="73">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B120" s="91"/>
-      <c r="C120" s="98"/>
-      <c r="D120" s="53" t="s">
+      <c r="B120" s="181"/>
+      <c r="C120" s="183"/>
+      <c r="D120" s="180" t="s">
         <v>190</v>
       </c>
-      <c r="E120" s="54"/>
-      <c r="F120" s="52" t="s">
+      <c r="E120" s="88"/>
+      <c r="F120" s="179" t="s">
         <v>191</v>
       </c>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="88"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -4719,68 +4707,68 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="77">
-        <f t="shared" si="1"/>
+      <c r="A121" s="73">
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B121" s="91"/>
-      <c r="C121" s="96" t="s">
+      <c r="B121" s="181"/>
+      <c r="C121" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="D121" s="53" t="s">
+      <c r="D121" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="E121" s="54"/>
-      <c r="F121" s="52" t="s">
+      <c r="E121" s="88"/>
+      <c r="F121" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="88"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="77">
-        <f t="shared" si="1"/>
+    <row r="122" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="73">
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B122" s="91"/>
-      <c r="C122" s="97"/>
-      <c r="D122" s="53" t="s">
+      <c r="B122" s="181"/>
+      <c r="C122" s="184"/>
+      <c r="D122" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="E122" s="54"/>
-      <c r="F122" s="96" t="s">
+      <c r="E122" s="88"/>
+      <c r="F122" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="88"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="77">
-        <f t="shared" si="1"/>
+    <row r="123" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="73">
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="98"/>
-      <c r="D123" s="53" t="s">
+      <c r="B123" s="181"/>
+      <c r="C123" s="183"/>
+      <c r="D123" s="180" t="s">
         <v>160</v>
       </c>
-      <c r="E123" s="54"/>
-      <c r="F123" s="98"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="183"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="88"/>
+      <c r="I123" s="88"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -4788,24 +4776,24 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="77">
-        <f t="shared" si="1"/>
+      <c r="A124" s="73">
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B124" s="91"/>
-      <c r="C124" s="96" t="s">
+      <c r="B124" s="181"/>
+      <c r="C124" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="D124" s="53" t="s">
+      <c r="D124" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="E124" s="54"/>
-      <c r="F124" s="56" t="s">
+      <c r="E124" s="88"/>
+      <c r="F124" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
+      <c r="G124" s="88"/>
+      <c r="H124" s="88"/>
+      <c r="I124" s="88"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -4813,22 +4801,22 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="77">
-        <f t="shared" si="1"/>
+      <c r="A125" s="73">
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B125" s="91"/>
-      <c r="C125" s="98"/>
-      <c r="D125" s="53" t="s">
+      <c r="B125" s="181"/>
+      <c r="C125" s="183"/>
+      <c r="D125" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="54"/>
-      <c r="F125" s="52" t="s">
+      <c r="E125" s="88"/>
+      <c r="F125" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="54"/>
+      <c r="G125" s="88"/>
+      <c r="H125" s="88"/>
+      <c r="I125" s="88"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -4836,36 +4824,36 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="77">
-        <f t="shared" si="1"/>
+      <c r="A126" s="73">
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B126" s="92"/>
-      <c r="C126" s="179" t="s">
+      <c r="B126" s="185"/>
+      <c r="C126" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="D126" s="180" t="s">
+      <c r="D126" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="E126" s="180"/>
-      <c r="F126" s="181" t="s">
+      <c r="E126" s="88"/>
+      <c r="F126" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="G126" s="180"/>
-      <c r="H126" s="180"/>
-      <c r="I126" s="180"/>
+      <c r="G126" s="88"/>
+      <c r="H126" s="88"/>
+      <c r="I126" s="88"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="77">
-        <f t="shared" si="1"/>
+    <row r="127" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="73">
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B127" s="149" t="s">
+      <c r="B127" s="97" t="s">
         <v>175</v>
       </c>
       <c r="C127" s="10"/>
@@ -4886,12 +4874,12 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="77">
-        <f t="shared" si="1"/>
+      <c r="A128" s="73">
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B128" s="150"/>
-      <c r="C128" s="88" t="s">
+      <c r="B128" s="98"/>
+      <c r="C128" s="113" t="s">
         <v>177</v>
       </c>
       <c r="D128" s="50" t="s">
@@ -4911,12 +4899,12 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="77">
-        <f t="shared" si="1"/>
+      <c r="A129" s="73">
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B129" s="150"/>
-      <c r="C129" s="89"/>
+      <c r="B129" s="98"/>
+      <c r="C129" s="114"/>
       <c r="D129" s="50" t="s">
         <v>212</v>
       </c>
@@ -4933,12 +4921,12 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="77">
-        <f t="shared" si="1"/>
+    <row r="130" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="73">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B130" s="150"/>
+      <c r="B130" s="98"/>
       <c r="C130" s="51" t="s">
         <v>238</v>
       </c>
@@ -4946,7 +4934,7 @@
         <v>54</v>
       </c>
       <c r="E130" s="10"/>
-      <c r="F130" s="55" t="s">
+      <c r="F130" s="52" t="s">
         <v>239</v>
       </c>
       <c r="G130" s="10"/>
@@ -4958,20 +4946,20 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="77">
-        <f t="shared" si="1"/>
+    <row r="131" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="73">
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B131" s="150"/>
-      <c r="C131" s="79" t="s">
+      <c r="B131" s="98"/>
+      <c r="C131" s="75" t="s">
         <v>240</v>
       </c>
       <c r="D131" s="50" t="s">
         <v>54</v>
       </c>
       <c r="E131" s="10"/>
-      <c r="F131" s="55" t="s">
+      <c r="F131" s="52" t="s">
         <v>241</v>
       </c>
       <c r="G131" s="10"/>
@@ -4984,19 +4972,19 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="77">
-        <f t="shared" si="1"/>
+      <c r="A132" s="73">
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B132" s="150"/>
-      <c r="C132" s="88" t="s">
+      <c r="B132" s="98"/>
+      <c r="C132" s="113" t="s">
         <v>62</v>
       </c>
       <c r="D132" s="50" t="s">
         <v>179</v>
       </c>
       <c r="E132" s="10"/>
-      <c r="F132" s="55" t="s">
+      <c r="F132" s="52" t="s">
         <v>60</v>
       </c>
       <c r="G132" s="10"/>
@@ -5009,17 +4997,17 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="77">
-        <f t="shared" si="1"/>
+      <c r="A133" s="73">
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B133" s="150"/>
-      <c r="C133" s="99"/>
+      <c r="B133" s="98"/>
+      <c r="C133" s="155"/>
       <c r="D133" s="50" t="s">
         <v>86</v>
       </c>
       <c r="E133" s="10"/>
-      <c r="F133" s="100" t="s">
+      <c r="F133" s="169" t="s">
         <v>59</v>
       </c>
       <c r="G133" s="10"/>
@@ -5032,17 +5020,17 @@
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="77">
-        <f t="shared" si="1"/>
+      <c r="A134" s="73">
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="B134" s="150"/>
-      <c r="C134" s="99"/>
+      <c r="B134" s="98"/>
+      <c r="C134" s="155"/>
       <c r="D134" s="50" t="s">
         <v>160</v>
       </c>
       <c r="E134" s="10"/>
-      <c r="F134" s="101"/>
+      <c r="F134" s="170"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
@@ -5053,17 +5041,17 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="77">
-        <f t="shared" si="1"/>
+      <c r="A135" s="73">
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="B135" s="150"/>
-      <c r="C135" s="89"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="114"/>
       <c r="D135" s="50" t="s">
         <v>180</v>
       </c>
       <c r="E135" s="10"/>
-      <c r="F135" s="102"/>
+      <c r="F135" s="171"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
@@ -5074,19 +5062,19 @@
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="77">
-        <f t="shared" si="1"/>
+      <c r="A136" s="73">
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="B136" s="150"/>
-      <c r="C136" s="88" t="s">
+      <c r="B136" s="98"/>
+      <c r="C136" s="113" t="s">
         <v>118</v>
       </c>
       <c r="D136" s="50" t="s">
         <v>163</v>
       </c>
       <c r="E136" s="10"/>
-      <c r="F136" s="55" t="s">
+      <c r="F136" s="52" t="s">
         <v>136</v>
       </c>
       <c r="G136" s="10"/>
@@ -5099,17 +5087,17 @@
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="77">
-        <f t="shared" si="1"/>
+      <c r="A137" s="73">
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B137" s="150"/>
-      <c r="C137" s="89"/>
+      <c r="B137" s="98"/>
+      <c r="C137" s="114"/>
       <c r="D137" s="50" t="s">
         <v>129</v>
       </c>
       <c r="E137" s="10"/>
-      <c r="F137" s="55" t="s">
+      <c r="F137" s="52" t="s">
         <v>130</v>
       </c>
       <c r="G137" s="10"/>
@@ -5122,19 +5110,19 @@
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="77">
-        <f t="shared" si="1"/>
+      <c r="A138" s="73">
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B138" s="150"/>
-      <c r="C138" s="88" t="s">
+      <c r="B138" s="98"/>
+      <c r="C138" s="113" t="s">
         <v>197</v>
       </c>
       <c r="D138" s="50" t="s">
         <v>188</v>
       </c>
       <c r="E138" s="10"/>
-      <c r="F138" s="55" t="s">
+      <c r="F138" s="52" t="s">
         <v>198</v>
       </c>
       <c r="G138" s="10"/>
@@ -5147,17 +5135,17 @@
       <c r="N138" s="1"/>
     </row>
     <row r="139" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="77">
-        <f t="shared" si="1"/>
+      <c r="A139" s="73">
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B139" s="150"/>
-      <c r="C139" s="89"/>
+      <c r="B139" s="98"/>
+      <c r="C139" s="114"/>
       <c r="D139" s="50" t="s">
         <v>190</v>
       </c>
       <c r="E139" s="10"/>
-      <c r="F139" s="55" t="s">
+      <c r="F139" s="52" t="s">
         <v>199</v>
       </c>
       <c r="G139" s="10"/>
@@ -5170,11 +5158,11 @@
       <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="77">
-        <f t="shared" si="1"/>
+      <c r="A140" s="73">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B140" s="151"/>
+      <c r="B140" s="99"/>
       <c r="C140" s="29" t="s">
         <v>234</v>
       </c>
@@ -5182,7 +5170,7 @@
         <v>235</v>
       </c>
       <c r="E140" s="10"/>
-      <c r="F140" s="55" t="s">
+      <c r="F140" s="52" t="s">
         <v>236</v>
       </c>
       <c r="G140" s="10"/>
@@ -5195,11 +5183,11 @@
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="77">
-        <f t="shared" si="1"/>
+      <c r="A141" s="73">
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B141" s="113" t="s">
+      <c r="B141" s="94" t="s">
         <v>61</v>
       </c>
       <c r="C141" s="15"/>
@@ -5220,13 +5208,13 @@
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="77">
-        <f t="shared" si="1"/>
+      <c r="A142" s="73">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B142" s="114"/>
+      <c r="B142" s="95"/>
       <c r="C142" s="17"/>
-      <c r="D142" s="127" t="s">
+      <c r="D142" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E142" s="18"/>
@@ -5243,13 +5231,13 @@
       <c r="N142" s="1"/>
     </row>
     <row r="143" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="77">
-        <f t="shared" ref="A143:A202" si="2">ROW(A133)</f>
+      <c r="A143" s="73">
+        <f t="shared" ref="A143:A202" si="3">ROW(A133)</f>
         <v>133</v>
       </c>
-      <c r="B143" s="114"/>
+      <c r="B143" s="95"/>
       <c r="C143" s="17"/>
-      <c r="D143" s="128"/>
+      <c r="D143" s="148"/>
       <c r="E143" s="18"/>
       <c r="F143" s="19" t="s">
         <v>127</v>
@@ -5264,13 +5252,13 @@
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="77">
-        <f t="shared" si="2"/>
+      <c r="A144" s="73">
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="B144" s="114"/>
+      <c r="B144" s="95"/>
       <c r="C144" s="17"/>
-      <c r="D144" s="129"/>
+      <c r="D144" s="112"/>
       <c r="E144" s="18"/>
       <c r="F144" s="19" t="s">
         <v>128</v>
@@ -5285,11 +5273,11 @@
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="77">
-        <f t="shared" si="2"/>
+      <c r="A145" s="73">
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="B145" s="114"/>
+      <c r="B145" s="95"/>
       <c r="C145" s="16" t="s">
         <v>37</v>
       </c>
@@ -5310,19 +5298,19 @@
       <c r="N145" s="1"/>
     </row>
     <row r="146" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="77">
-        <f t="shared" si="2"/>
+      <c r="A146" s="73">
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="B146" s="115"/>
-      <c r="C146" s="80" t="s">
+      <c r="B146" s="96"/>
+      <c r="C146" s="76" t="s">
         <v>234</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>235</v>
       </c>
       <c r="E146" s="16"/>
-      <c r="F146" s="165" t="s">
+      <c r="F146" s="81" t="s">
         <v>236</v>
       </c>
       <c r="G146" s="16"/>
@@ -5335,11 +5323,11 @@
       <c r="N146" s="1"/>
     </row>
     <row r="147" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="77">
-        <f t="shared" si="2"/>
+      <c r="A147" s="73">
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
-      <c r="B147" s="158" t="s">
+      <c r="B147" s="132" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="47" t="s">
@@ -5362,11 +5350,11 @@
       <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="77">
-        <f t="shared" si="2"/>
+      <c r="A148" s="73">
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="B148" s="159"/>
+      <c r="B148" s="133"/>
       <c r="C148" s="47" t="s">
         <v>151</v>
       </c>
@@ -5387,11 +5375,11 @@
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="77">
-        <f t="shared" si="2"/>
+      <c r="A149" s="73">
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
-      <c r="B149" s="159"/>
+      <c r="B149" s="133"/>
       <c r="C149" s="47" t="s">
         <v>152</v>
       </c>
@@ -5412,11 +5400,11 @@
       <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="77">
-        <f t="shared" si="2"/>
+      <c r="A150" s="73">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="B150" s="159"/>
+      <c r="B150" s="133"/>
       <c r="C150" s="47" t="s">
         <v>31</v>
       </c>
@@ -5437,11 +5425,11 @@
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="77">
-        <f t="shared" si="2"/>
+      <c r="A151" s="73">
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="B151" s="159"/>
+      <c r="B151" s="133"/>
       <c r="C151" s="47" t="s">
         <v>153</v>
       </c>
@@ -5461,12 +5449,12 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="77">
-        <f t="shared" si="2"/>
+    <row r="152" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="73">
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="B152" s="185"/>
+      <c r="B152" s="134"/>
       <c r="C152" s="49" t="s">
         <v>203</v>
       </c>
@@ -5487,24 +5475,24 @@
       <c r="N152" s="1"/>
     </row>
     <row r="153" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="77">
-        <f t="shared" si="2"/>
+      <c r="A153" s="73">
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="B153" s="163" t="s">
+      <c r="B153" s="138" t="s">
         <v>209</v>
       </c>
-      <c r="C153" s="73"/>
-      <c r="D153" s="71" t="s">
+      <c r="C153" s="69"/>
+      <c r="D153" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E153" s="72"/>
-      <c r="F153" s="76" t="s">
+      <c r="E153" s="68"/>
+      <c r="F153" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="G153" s="72"/>
-      <c r="H153" s="72"/>
-      <c r="I153" s="72"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="68"/>
+      <c r="I153" s="68"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -5512,22 +5500,22 @@
       <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="77">
-        <f t="shared" si="2"/>
+      <c r="A154" s="73">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="B154" s="163"/>
-      <c r="C154" s="160"/>
-      <c r="D154" s="132" t="s">
+      <c r="B154" s="138"/>
+      <c r="C154" s="135"/>
+      <c r="D154" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="E154" s="72"/>
-      <c r="F154" s="73" t="s">
+      <c r="E154" s="68"/>
+      <c r="F154" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="G154" s="72"/>
-      <c r="H154" s="72"/>
-      <c r="I154" s="72"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="68"/>
+      <c r="I154" s="68"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -5535,20 +5523,20 @@
       <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="77">
-        <f t="shared" si="2"/>
+      <c r="A155" s="73">
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="B155" s="163"/>
-      <c r="C155" s="161"/>
-      <c r="D155" s="133"/>
-      <c r="E155" s="72"/>
-      <c r="F155" s="73" t="s">
+      <c r="B155" s="138"/>
+      <c r="C155" s="136"/>
+      <c r="D155" s="153"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="G155" s="72"/>
-      <c r="H155" s="72"/>
-      <c r="I155" s="72"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="68"/>
+      <c r="I155" s="68"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -5556,20 +5544,20 @@
       <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="77">
-        <f t="shared" si="2"/>
+      <c r="A156" s="73">
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="B156" s="163"/>
-      <c r="C156" s="161"/>
-      <c r="D156" s="133"/>
-      <c r="E156" s="72"/>
-      <c r="F156" s="73" t="s">
+      <c r="B156" s="138"/>
+      <c r="C156" s="136"/>
+      <c r="D156" s="153"/>
+      <c r="E156" s="68"/>
+      <c r="F156" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="G156" s="72"/>
-      <c r="H156" s="72"/>
-      <c r="I156" s="72"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="68"/>
+      <c r="I156" s="68"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -5577,20 +5565,20 @@
       <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="77">
-        <f t="shared" si="2"/>
+      <c r="A157" s="73">
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
-      <c r="B157" s="163"/>
-      <c r="C157" s="162"/>
-      <c r="D157" s="134"/>
-      <c r="E157" s="72"/>
-      <c r="F157" s="73" t="s">
+      <c r="B157" s="138"/>
+      <c r="C157" s="137"/>
+      <c r="D157" s="154"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="G157" s="72"/>
-      <c r="H157" s="72"/>
-      <c r="I157" s="72"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="68"/>
+      <c r="I157" s="68"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -5598,24 +5586,24 @@
       <c r="N157" s="1"/>
     </row>
     <row r="158" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="77">
-        <f t="shared" si="2"/>
+      <c r="A158" s="73">
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="B158" s="164"/>
-      <c r="C158" s="74" t="s">
+      <c r="B158" s="139"/>
+      <c r="C158" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D158" s="75" t="s">
+      <c r="D158" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E158" s="72"/>
-      <c r="F158" s="73" t="s">
+      <c r="E158" s="68"/>
+      <c r="F158" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="G158" s="72"/>
-      <c r="H158" s="72"/>
-      <c r="I158" s="72"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="68"/>
+      <c r="I158" s="68"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -5623,11 +5611,11 @@
       <c r="N158" s="1"/>
     </row>
     <row r="159" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="77">
-        <f t="shared" si="2"/>
+      <c r="A159" s="73">
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="B159" s="155" t="s">
+      <c r="B159" s="129" t="s">
         <v>67</v>
       </c>
       <c r="C159" s="21"/>
@@ -5648,12 +5636,12 @@
       <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="77">
-        <f t="shared" si="2"/>
+      <c r="A160" s="73">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B160" s="156"/>
-      <c r="C160" s="103" t="s">
+      <c r="B160" s="130"/>
+      <c r="C160" s="127" t="s">
         <v>69</v>
       </c>
       <c r="D160" s="21" t="s">
@@ -5673,17 +5661,17 @@
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="77">
-        <f t="shared" si="2"/>
+      <c r="A161" s="73">
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="B161" s="156"/>
-      <c r="C161" s="131"/>
+      <c r="B161" s="130"/>
+      <c r="C161" s="151"/>
       <c r="D161" s="21" t="s">
         <v>93</v>
       </c>
       <c r="E161" s="22"/>
-      <c r="F161" s="103" t="s">
+      <c r="F161" s="127" t="s">
         <v>59</v>
       </c>
       <c r="G161" s="22"/>
@@ -5696,17 +5684,17 @@
       <c r="N161" s="1"/>
     </row>
     <row r="162" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="77">
-        <f t="shared" si="2"/>
+      <c r="A162" s="73">
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="B162" s="156"/>
-      <c r="C162" s="104"/>
+      <c r="B162" s="130"/>
+      <c r="C162" s="128"/>
       <c r="D162" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E162" s="22"/>
-      <c r="F162" s="104"/>
+      <c r="F162" s="128"/>
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
@@ -5717,11 +5705,11 @@
       <c r="N162" s="1"/>
     </row>
     <row r="163" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="77">
-        <f t="shared" si="2"/>
+      <c r="A163" s="73">
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="B163" s="156"/>
+      <c r="B163" s="130"/>
       <c r="C163" s="23" t="s">
         <v>68</v>
       </c>
@@ -5742,11 +5730,11 @@
       <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="77">
-        <f t="shared" si="2"/>
+      <c r="A164" s="73">
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="B164" s="156"/>
+      <c r="B164" s="130"/>
       <c r="C164" s="21" t="s">
         <v>70</v>
       </c>
@@ -5767,12 +5755,12 @@
       <c r="N164" s="1"/>
     </row>
     <row r="165" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="77">
-        <f t="shared" si="2"/>
+      <c r="A165" s="73">
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="B165" s="156"/>
-      <c r="C165" s="103" t="s">
+      <c r="B165" s="130"/>
+      <c r="C165" s="127" t="s">
         <v>97</v>
       </c>
       <c r="D165" s="20" t="s">
@@ -5792,17 +5780,17 @@
       <c r="N165" s="1"/>
     </row>
     <row r="166" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="77">
-        <f t="shared" si="2"/>
+      <c r="A166" s="73">
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="B166" s="156"/>
-      <c r="C166" s="131"/>
+      <c r="B166" s="130"/>
+      <c r="C166" s="151"/>
       <c r="D166" s="20" t="s">
         <v>100</v>
       </c>
       <c r="E166" s="22"/>
-      <c r="F166" s="105" t="s">
+      <c r="F166" s="172" t="s">
         <v>59</v>
       </c>
       <c r="G166" s="22"/>
@@ -5815,17 +5803,17 @@
       <c r="N166" s="1"/>
     </row>
     <row r="167" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="77">
-        <f t="shared" si="2"/>
+      <c r="A167" s="73">
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="B167" s="156"/>
-      <c r="C167" s="131"/>
+      <c r="B167" s="130"/>
+      <c r="C167" s="151"/>
       <c r="D167" s="20" t="s">
         <v>101</v>
       </c>
       <c r="E167" s="22"/>
-      <c r="F167" s="106"/>
+      <c r="F167" s="173"/>
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
@@ -5836,17 +5824,17 @@
       <c r="N167" s="1"/>
     </row>
     <row r="168" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="77">
-        <f t="shared" si="2"/>
+      <c r="A168" s="73">
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="B168" s="156"/>
-      <c r="C168" s="104"/>
+      <c r="B168" s="130"/>
+      <c r="C168" s="128"/>
       <c r="D168" s="20" t="s">
         <v>117</v>
       </c>
       <c r="E168" s="22"/>
-      <c r="F168" s="107"/>
+      <c r="F168" s="174"/>
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
@@ -5857,12 +5845,12 @@
       <c r="N168" s="1"/>
     </row>
     <row r="169" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="77">
-        <f t="shared" si="2"/>
+      <c r="A169" s="73">
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="B169" s="156"/>
-      <c r="C169" s="103" t="s">
+      <c r="B169" s="130"/>
+      <c r="C169" s="127" t="s">
         <v>118</v>
       </c>
       <c r="D169" s="20" t="s">
@@ -5882,12 +5870,12 @@
       <c r="N169" s="1"/>
     </row>
     <row r="170" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="77">
-        <f t="shared" si="2"/>
+      <c r="A170" s="73">
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="B170" s="156"/>
-      <c r="C170" s="104"/>
+      <c r="B170" s="130"/>
+      <c r="C170" s="128"/>
       <c r="D170" s="20" t="s">
         <v>129</v>
       </c>
@@ -5905,12 +5893,12 @@
       <c r="N170" s="1"/>
     </row>
     <row r="171" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="77">
-        <f t="shared" si="2"/>
+      <c r="A171" s="73">
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="B171" s="156"/>
-      <c r="C171" s="83" t="s">
+      <c r="B171" s="130"/>
+      <c r="C171" s="79" t="s">
         <v>237</v>
       </c>
       <c r="D171" s="20" t="s">
@@ -5930,12 +5918,12 @@
       <c r="N171" s="1"/>
     </row>
     <row r="172" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="77">
-        <f t="shared" si="2"/>
+      <c r="A172" s="73">
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="B172" s="156"/>
-      <c r="C172" s="103" t="s">
+      <c r="B172" s="130"/>
+      <c r="C172" s="127" t="s">
         <v>197</v>
       </c>
       <c r="D172" s="20" t="s">
@@ -5955,12 +5943,12 @@
       <c r="N172" s="1"/>
     </row>
     <row r="173" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="77">
-        <f t="shared" si="2"/>
+      <c r="A173" s="73">
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="B173" s="157"/>
-      <c r="C173" s="104"/>
+      <c r="B173" s="131"/>
+      <c r="C173" s="128"/>
       <c r="D173" s="20" t="s">
         <v>190</v>
       </c>
@@ -5978,11 +5966,11 @@
       <c r="N173" s="1"/>
     </row>
     <row r="174" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="77">
-        <f t="shared" si="2"/>
+      <c r="A174" s="73">
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="B174" s="152" t="s">
+      <c r="B174" s="122" t="s">
         <v>139</v>
       </c>
       <c r="C174" s="24"/>
@@ -6003,15 +5991,15 @@
       <c r="N174" s="1"/>
     </row>
     <row r="175" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="77">
-        <f t="shared" si="2"/>
+      <c r="A175" s="73">
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="B175" s="153"/>
-      <c r="C175" s="108" t="s">
+      <c r="B175" s="123"/>
+      <c r="C175" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="D175" s="108" t="s">
+      <c r="D175" s="125" t="s">
         <v>102</v>
       </c>
       <c r="E175" s="24"/>
@@ -6028,13 +6016,13 @@
       <c r="N175" s="1"/>
     </row>
     <row r="176" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="77">
-        <f t="shared" si="2"/>
+      <c r="A176" s="73">
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="B176" s="153"/>
-      <c r="C176" s="130"/>
-      <c r="D176" s="130"/>
+      <c r="B176" s="123"/>
+      <c r="C176" s="150"/>
+      <c r="D176" s="150"/>
       <c r="E176" s="26"/>
       <c r="F176" s="32" t="s">
         <v>201</v>
@@ -6049,13 +6037,13 @@
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="77">
-        <f t="shared" si="2"/>
+      <c r="A177" s="73">
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
-      <c r="B177" s="153"/>
-      <c r="C177" s="130"/>
-      <c r="D177" s="130"/>
+      <c r="B177" s="123"/>
+      <c r="C177" s="150"/>
+      <c r="D177" s="150"/>
       <c r="E177" s="26"/>
       <c r="F177" s="32" t="s">
         <v>202</v>
@@ -6070,13 +6058,13 @@
       <c r="N177" s="1"/>
     </row>
     <row r="178" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="77">
-        <f t="shared" si="2"/>
+      <c r="A178" s="73">
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="B178" s="153"/>
-      <c r="C178" s="109"/>
-      <c r="D178" s="109"/>
+      <c r="B178" s="123"/>
+      <c r="C178" s="126"/>
+      <c r="D178" s="126"/>
       <c r="E178" s="26"/>
       <c r="F178" s="32" t="s">
         <v>104</v>
@@ -6091,11 +6079,11 @@
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="77">
-        <f t="shared" si="2"/>
+      <c r="A179" s="73">
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
-      <c r="B179" s="153"/>
+      <c r="B179" s="123"/>
       <c r="C179" s="26" t="s">
         <v>68</v>
       </c>
@@ -6116,12 +6104,12 @@
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="77">
-        <f t="shared" si="2"/>
+      <c r="A180" s="73">
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="B180" s="153"/>
-      <c r="C180" s="108" t="s">
+      <c r="B180" s="123"/>
+      <c r="C180" s="125" t="s">
         <v>118</v>
       </c>
       <c r="D180" s="26" t="s">
@@ -6141,12 +6129,12 @@
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="77">
-        <f t="shared" si="2"/>
+      <c r="A181" s="73">
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
-      <c r="B181" s="153"/>
-      <c r="C181" s="109"/>
+      <c r="B181" s="123"/>
+      <c r="C181" s="126"/>
       <c r="D181" s="26" t="s">
         <v>141</v>
       </c>
@@ -6164,24 +6152,24 @@
       <c r="N181" s="1"/>
     </row>
     <row r="182" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="77">
-        <f t="shared" si="2"/>
+      <c r="A182" s="73">
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
-      <c r="B182" s="153"/>
-      <c r="C182" s="82" t="s">
+      <c r="B182" s="123"/>
+      <c r="C182" s="78" t="s">
         <v>237</v>
       </c>
       <c r="D182" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E182" s="187"/>
+      <c r="E182" s="93"/>
       <c r="F182" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G182" s="187"/>
-      <c r="H182" s="187"/>
-      <c r="I182" s="187"/>
+      <c r="G182" s="93"/>
+      <c r="H182" s="93"/>
+      <c r="I182" s="93"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -6189,12 +6177,12 @@
       <c r="N182" s="1"/>
     </row>
     <row r="183" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="77">
-        <f t="shared" si="2"/>
+      <c r="A183" s="73">
+        <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="B183" s="153"/>
-      <c r="C183" s="108" t="s">
+      <c r="B183" s="123"/>
+      <c r="C183" s="125" t="s">
         <v>197</v>
       </c>
       <c r="D183" s="26" t="s">
@@ -6214,12 +6202,12 @@
       <c r="N183" s="1"/>
     </row>
     <row r="184" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="77">
-        <f t="shared" si="2"/>
+      <c r="A184" s="73">
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
-      <c r="B184" s="154"/>
-      <c r="C184" s="109"/>
+      <c r="B184" s="124"/>
+      <c r="C184" s="126"/>
       <c r="D184" s="26" t="s">
         <v>190</v>
       </c>
@@ -6236,12 +6224,12 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="77">
-        <f t="shared" si="2"/>
+    <row r="185" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="73">
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="B185" s="146" t="s">
+      <c r="B185" s="175" t="s">
         <v>138</v>
       </c>
       <c r="C185" s="27"/>
@@ -6262,11 +6250,11 @@
       <c r="N185" s="1"/>
     </row>
     <row r="186" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="77">
-        <f t="shared" si="2"/>
+      <c r="A186" s="73">
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="B186" s="147"/>
+      <c r="B186" s="176"/>
       <c r="C186" s="27" t="s">
         <v>76</v>
       </c>
@@ -6286,13 +6274,13 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="77">
-        <f t="shared" si="2"/>
+    <row r="187" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="73">
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
-      <c r="B187" s="147"/>
-      <c r="C187" s="141" t="s">
+      <c r="B187" s="176"/>
+      <c r="C187" s="117" t="s">
         <v>74</v>
       </c>
       <c r="D187" s="27" t="s">
@@ -6311,13 +6299,13 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="77">
-        <f t="shared" si="2"/>
+    <row r="188" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="73">
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
-      <c r="B188" s="147"/>
-      <c r="C188" s="142"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="118"/>
       <c r="D188" s="27" t="s">
         <v>212</v>
       </c>
@@ -6335,12 +6323,12 @@
       <c r="N188" s="1"/>
     </row>
     <row r="189" spans="1:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="77">
-        <f t="shared" si="2"/>
+      <c r="A189" s="73">
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="B189" s="147"/>
-      <c r="C189" s="141" t="s">
+      <c r="B189" s="176"/>
+      <c r="C189" s="117" t="s">
         <v>118</v>
       </c>
       <c r="D189" s="27" t="s">
@@ -6360,12 +6348,12 @@
       <c r="N189" s="1"/>
     </row>
     <row r="190" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="77">
-        <f t="shared" si="2"/>
+      <c r="A190" s="73">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="B190" s="147"/>
-      <c r="C190" s="142"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="118"/>
       <c r="D190" s="27" t="s">
         <v>145</v>
       </c>
@@ -6382,13 +6370,13 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="77">
-        <f t="shared" si="2"/>
+    <row r="191" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="73">
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
-      <c r="B191" s="147"/>
-      <c r="C191" s="186" t="s">
+      <c r="B191" s="176"/>
+      <c r="C191" s="92" t="s">
         <v>237</v>
       </c>
       <c r="D191" s="28" t="s">
@@ -6407,13 +6395,13 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="77">
-        <f t="shared" si="2"/>
+    <row r="192" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="73">
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="B192" s="147"/>
-      <c r="C192" s="141" t="s">
+      <c r="B192" s="176"/>
+      <c r="C192" s="117" t="s">
         <v>197</v>
       </c>
       <c r="D192" s="27" t="s">
@@ -6425,20 +6413,20 @@
       </c>
       <c r="G192" s="46"/>
       <c r="H192" s="46"/>
-      <c r="I192" s="70"/>
+      <c r="I192" s="66"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="77">
-        <f t="shared" si="2"/>
+    <row r="193" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="73">
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="B193" s="148"/>
-      <c r="C193" s="142"/>
+      <c r="B193" s="177"/>
+      <c r="C193" s="118"/>
       <c r="D193" s="27" t="s">
         <v>190</v>
       </c>
@@ -6448,7 +6436,7 @@
       </c>
       <c r="G193" s="46"/>
       <c r="H193" s="46"/>
-      <c r="I193" s="70"/>
+      <c r="I193" s="66"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -6456,24 +6444,24 @@
       <c r="N193" s="1"/>
     </row>
     <row r="194" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="77">
-        <f t="shared" si="2"/>
+      <c r="A194" s="73">
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="B194" s="93" t="s">
+      <c r="B194" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58" t="s">
+      <c r="C194" s="54"/>
+      <c r="D194" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E194" s="58"/>
-      <c r="F194" s="58" t="s">
+      <c r="E194" s="54"/>
+      <c r="F194" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="G194" s="58"/>
-      <c r="H194" s="58"/>
-      <c r="I194" s="59"/>
+      <c r="G194" s="54"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="55"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -6481,24 +6469,24 @@
       <c r="N194" s="1"/>
     </row>
     <row r="195" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="77">
-        <f t="shared" si="2"/>
+      <c r="A195" s="73">
+        <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="B195" s="94"/>
-      <c r="C195" s="85" t="s">
+      <c r="B195" s="164"/>
+      <c r="C195" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="D195" s="58" t="s">
+      <c r="D195" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58" t="s">
+      <c r="E195" s="54"/>
+      <c r="F195" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G195" s="58"/>
-      <c r="H195" s="58"/>
-      <c r="I195" s="58"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -6506,22 +6494,22 @@
       <c r="N195" s="1"/>
     </row>
     <row r="196" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="77">
-        <f t="shared" si="2"/>
+      <c r="A196" s="73">
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="B196" s="94"/>
-      <c r="C196" s="86"/>
-      <c r="D196" s="58" t="s">
+      <c r="B196" s="164"/>
+      <c r="C196" s="167"/>
+      <c r="D196" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E196" s="58"/>
-      <c r="F196" s="85" t="s">
+      <c r="E196" s="54"/>
+      <c r="F196" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="G196" s="58"/>
-      <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
+      <c r="G196" s="54"/>
+      <c r="H196" s="54"/>
+      <c r="I196" s="54"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -6529,20 +6517,20 @@
       <c r="N196" s="1"/>
     </row>
     <row r="197" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="77">
-        <f t="shared" si="2"/>
+      <c r="A197" s="73">
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
-      <c r="B197" s="94"/>
-      <c r="C197" s="86"/>
-      <c r="D197" s="58" t="s">
+      <c r="B197" s="164"/>
+      <c r="C197" s="167"/>
+      <c r="D197" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E197" s="58"/>
-      <c r="F197" s="86"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="58"/>
-      <c r="I197" s="58"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="167"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -6550,20 +6538,20 @@
       <c r="N197" s="1"/>
     </row>
     <row r="198" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="77">
-        <f t="shared" si="2"/>
+      <c r="A198" s="73">
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="B198" s="94"/>
-      <c r="C198" s="87"/>
-      <c r="D198" s="60" t="s">
+      <c r="B198" s="164"/>
+      <c r="C198" s="168"/>
+      <c r="D198" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="E198" s="57"/>
-      <c r="F198" s="87"/>
-      <c r="G198" s="57"/>
-      <c r="H198" s="57"/>
-      <c r="I198" s="57"/>
+      <c r="E198" s="53"/>
+      <c r="F198" s="168"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="53"/>
+      <c r="I198" s="53"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -6571,24 +6559,24 @@
       <c r="N198" s="1"/>
     </row>
     <row r="199" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="77">
-        <f t="shared" si="2"/>
+      <c r="A199" s="73">
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="B199" s="94"/>
-      <c r="C199" s="84" t="s">
+      <c r="B199" s="164"/>
+      <c r="C199" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="D199" s="60" t="s">
+      <c r="D199" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E199" s="57"/>
-      <c r="F199" s="58" t="s">
+      <c r="E199" s="53"/>
+      <c r="F199" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="G199" s="57"/>
-      <c r="H199" s="57"/>
-      <c r="I199" s="57"/>
+      <c r="G199" s="53"/>
+      <c r="H199" s="53"/>
+      <c r="I199" s="53"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -6596,24 +6584,24 @@
       <c r="N199" s="1"/>
     </row>
     <row r="200" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="77">
-        <f t="shared" si="2"/>
+      <c r="A200" s="73">
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="B200" s="95"/>
-      <c r="C200" s="58" t="s">
+      <c r="B200" s="165"/>
+      <c r="C200" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="D200" s="58" t="s">
+      <c r="D200" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E200" s="58"/>
-      <c r="F200" s="58" t="s">
+      <c r="E200" s="54"/>
+      <c r="F200" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G200" s="58"/>
-      <c r="H200" s="58"/>
-      <c r="I200" s="58"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -6621,18 +6609,18 @@
       <c r="N200" s="1"/>
     </row>
     <row r="201" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="77">
-        <f t="shared" si="2"/>
+      <c r="A201" s="73">
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="B201" s="57"/>
-      <c r="C201" s="57"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="57"/>
-      <c r="F201" s="57"/>
-      <c r="G201" s="57"/>
-      <c r="H201" s="57"/>
-      <c r="I201" s="57"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="53"/>
+      <c r="E201" s="53"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="53"/>
+      <c r="I201" s="53"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -6640,18 +6628,18 @@
       <c r="N201" s="1"/>
     </row>
     <row r="202" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="77">
-        <f t="shared" si="2"/>
+      <c r="A202" s="73">
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="B202" s="57"/>
-      <c r="C202" s="57"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="57"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="57"/>
-      <c r="H202" s="57"/>
-      <c r="I202" s="57"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="53"/>
+      <c r="E202" s="53"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="53"/>
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -6659,18 +6647,18 @@
       <c r="N202" s="1"/>
     </row>
     <row r="203" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="77">
-        <f t="shared" ref="A143:A203" si="3">ROW(A193)</f>
+      <c r="A203" s="73">
+        <f t="shared" ref="A203" si="4">ROW(A193)</f>
         <v>193</v>
       </c>
-      <c r="B203" s="57"/>
-      <c r="C203" s="57"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="57"/>
-      <c r="F203" s="57"/>
-      <c r="G203" s="57"/>
-      <c r="H203" s="57"/>
-      <c r="I203" s="57"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="53"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="53"/>
+      <c r="H203" s="53"/>
+      <c r="I203" s="53"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -7671,6 +7659,69 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B194:B200"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="B185:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B127:B140"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="D175:D178"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="B174:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="B159:B173"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="B100:B115"/>
+    <mergeCell ref="B87:B99"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B116:B126"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B73:B86"/>
     <mergeCell ref="B56:B72"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F41:F48"/>
@@ -7683,70 +7734,7 @@
     <mergeCell ref="B21:B38"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="B174:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="B159:B173"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="B100:B115"/>
-    <mergeCell ref="B87:B99"/>
-    <mergeCell ref="B127:B140"/>
-    <mergeCell ref="B116:B126"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="B185:B193"/>
-    <mergeCell ref="C192:C193"/>
     <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="D175:D178"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="B194:B200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
